--- a/Pasajeros_por_ruta_F.xlsx
+++ b/Pasajeros_por_ruta_F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8EEBEB-660B-49A1-B211-F72D42B4C358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6AD950-E919-4339-9CFA-7A194D1C1E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_26" sheetId="1" r:id="rId1"/>
@@ -427,13 +427,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -452,6 +445,13 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L84" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L84" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="B4:L84" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
     <filterColumn colId="0">
       <filters>
@@ -902,22 +902,22 @@
       </c>
       <c r="D7" s="17">
         <f t="shared" si="0"/>
-        <v>4271.3110000000006</v>
+        <v>3875.0760000000005</v>
       </c>
       <c r="F7" s="5">
         <v>13.523</v>
       </c>
       <c r="G7" s="5">
-        <v>4.2240000000000002</v>
+        <v>3.4060000000000001</v>
       </c>
       <c r="H7" s="5">
-        <v>39.758000000000003</v>
+        <v>40.255000000000003</v>
       </c>
       <c r="I7" s="5">
-        <v>3973.8029999999999</v>
+        <v>3600.1310000000003</v>
       </c>
       <c r="J7" s="5">
-        <v>239.90299999999999</v>
+        <v>217.661</v>
       </c>
       <c r="K7" s="5">
         <v>0.1</v>

--- a/Pasajeros_por_ruta_F.xlsx
+++ b/Pasajeros_por_ruta_F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6AD950-E919-4339-9CFA-7A194D1C1E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ECEED3-3740-4341-B7E1-AED8042EA56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_26" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -84,6 +84,42 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -830,8 +866,8 @@
       <c r="B5" s="20">
         <v>2024</v>
       </c>
-      <c r="C5" s="20">
-        <v>8</v>
+      <c r="C5" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" ref="D5:D23" si="0">SUM(E5:L5)</f>
@@ -863,8 +899,8 @@
       <c r="B6" s="21">
         <v>2024</v>
       </c>
-      <c r="C6" s="21">
-        <v>7</v>
+      <c r="C6" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
@@ -897,8 +933,8 @@
       <c r="B7" s="20">
         <v>2024</v>
       </c>
-      <c r="C7" s="20">
-        <v>6</v>
+      <c r="C7" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" si="0"/>
@@ -930,8 +966,8 @@
       <c r="B8" s="21">
         <v>2024</v>
       </c>
-      <c r="C8" s="21">
-        <v>5</v>
+      <c r="C8" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
@@ -964,8 +1000,8 @@
       <c r="B9" s="20">
         <v>2024</v>
       </c>
-      <c r="C9" s="20">
-        <v>4</v>
+      <c r="C9" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
@@ -997,8 +1033,8 @@
       <c r="B10" s="21">
         <v>2024</v>
       </c>
-      <c r="C10" s="21">
-        <v>3</v>
+      <c r="C10" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
@@ -1027,8 +1063,8 @@
       <c r="B11" s="20">
         <v>2024</v>
       </c>
-      <c r="C11" s="20">
-        <v>2</v>
+      <c r="C11" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
@@ -1058,8 +1094,8 @@
       <c r="B12" s="22">
         <v>2024</v>
       </c>
-      <c r="C12" s="22">
-        <v>1</v>
+      <c r="C12" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
@@ -1090,8 +1126,8 @@
       <c r="B13" s="23">
         <v>2023</v>
       </c>
-      <c r="C13" s="23">
-        <v>12</v>
+      <c r="C13" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
@@ -1116,8 +1152,8 @@
       <c r="B14" s="21">
         <v>2023</v>
       </c>
-      <c r="C14" s="21">
-        <v>11</v>
+      <c r="C14" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
@@ -1140,8 +1176,8 @@
       <c r="B15" s="20">
         <v>2023</v>
       </c>
-      <c r="C15" s="20">
-        <v>10</v>
+      <c r="C15" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
@@ -1163,8 +1199,8 @@
       <c r="B16" s="21">
         <v>2023</v>
       </c>
-      <c r="C16" s="21">
-        <v>9</v>
+      <c r="C16" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
@@ -1187,8 +1223,8 @@
       <c r="B17" s="20">
         <v>2023</v>
       </c>
-      <c r="C17" s="20">
-        <v>8</v>
+      <c r="C17" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="0"/>
@@ -1210,8 +1246,8 @@
       <c r="B18" s="21">
         <v>2023</v>
       </c>
-      <c r="C18" s="21">
-        <v>7</v>
+      <c r="C18" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
@@ -1234,8 +1270,8 @@
       <c r="B19" s="20">
         <v>2023</v>
       </c>
-      <c r="C19" s="20">
-        <v>6</v>
+      <c r="C19" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
@@ -1257,8 +1293,8 @@
       <c r="B20" s="21">
         <v>2023</v>
       </c>
-      <c r="C20" s="21">
-        <v>5</v>
+      <c r="C20" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
@@ -1281,8 +1317,8 @@
       <c r="B21" s="20">
         <v>2023</v>
       </c>
-      <c r="C21" s="20">
-        <v>4</v>
+      <c r="C21" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="0"/>
@@ -1304,8 +1340,8 @@
       <c r="B22" s="21">
         <v>2023</v>
       </c>
-      <c r="C22" s="21">
-        <v>3</v>
+      <c r="C22" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
@@ -1328,8 +1364,8 @@
       <c r="B23" s="20">
         <v>2023</v>
       </c>
-      <c r="C23" s="20">
-        <v>2</v>
+      <c r="C23" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
@@ -1351,8 +1387,8 @@
       <c r="B24" s="22">
         <v>2023</v>
       </c>
-      <c r="C24" s="22">
-        <v>1</v>
+      <c r="C24" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" ref="D24:D55" si="1">SUM(E24:L24)</f>
@@ -1377,8 +1413,8 @@
       <c r="B25" s="23">
         <v>2022</v>
       </c>
-      <c r="C25" s="23">
-        <v>12</v>
+      <c r="C25" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" si="1"/>
@@ -1401,8 +1437,8 @@
       <c r="B26" s="21">
         <v>2022</v>
       </c>
-      <c r="C26" s="21">
-        <v>11</v>
+      <c r="C26" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="1"/>
@@ -1425,8 +1461,8 @@
       <c r="B27" s="20">
         <v>2022</v>
       </c>
-      <c r="C27" s="20">
-        <v>10</v>
+      <c r="C27" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="1"/>
@@ -1448,8 +1484,8 @@
       <c r="B28" s="21">
         <v>2022</v>
       </c>
-      <c r="C28" s="21">
-        <v>9</v>
+      <c r="C28" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="1"/>
@@ -1472,8 +1508,8 @@
       <c r="B29" s="20">
         <v>2022</v>
       </c>
-      <c r="C29" s="20">
-        <v>8</v>
+      <c r="C29" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="1"/>
@@ -1495,8 +1531,8 @@
       <c r="B30" s="21">
         <v>2022</v>
       </c>
-      <c r="C30" s="21">
-        <v>7</v>
+      <c r="C30" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="1"/>
@@ -1519,8 +1555,8 @@
       <c r="B31" s="20">
         <v>2022</v>
       </c>
-      <c r="C31" s="20">
-        <v>6</v>
+      <c r="C31" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="1"/>
@@ -1542,8 +1578,8 @@
       <c r="B32" s="21">
         <v>2022</v>
       </c>
-      <c r="C32" s="21">
-        <v>5</v>
+      <c r="C32" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="1"/>
@@ -1566,8 +1602,8 @@
       <c r="B33" s="20">
         <v>2022</v>
       </c>
-      <c r="C33" s="20">
-        <v>4</v>
+      <c r="C33" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="1"/>
@@ -1589,8 +1625,8 @@
       <c r="B34" s="21">
         <v>2022</v>
       </c>
-      <c r="C34" s="21">
-        <v>3</v>
+      <c r="C34" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="1"/>
@@ -1613,8 +1649,8 @@
       <c r="B35" s="20">
         <v>2022</v>
       </c>
-      <c r="C35" s="20">
-        <v>2</v>
+      <c r="C35" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="1"/>
@@ -1636,8 +1672,8 @@
       <c r="B36" s="22">
         <v>2022</v>
       </c>
-      <c r="C36" s="22">
-        <v>1</v>
+      <c r="C36" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="1"/>
@@ -1660,8 +1696,8 @@
       <c r="B37" s="23">
         <v>2021</v>
       </c>
-      <c r="C37" s="23">
-        <v>12</v>
+      <c r="C37" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="1"/>
@@ -1686,8 +1722,8 @@
       <c r="B38" s="21">
         <v>2021</v>
       </c>
-      <c r="C38" s="21">
-        <v>11</v>
+      <c r="C38" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="1"/>
@@ -1712,8 +1748,8 @@
       <c r="B39" s="20">
         <v>2021</v>
       </c>
-      <c r="C39" s="20">
-        <v>10</v>
+      <c r="C39" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="D39" s="17">
         <f t="shared" si="1"/>
@@ -1740,8 +1776,8 @@
       <c r="B40" s="21">
         <v>2021</v>
       </c>
-      <c r="C40" s="21">
-        <v>9</v>
+      <c r="C40" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="1"/>
@@ -1766,8 +1802,8 @@
       <c r="B41" s="20">
         <v>2021</v>
       </c>
-      <c r="C41" s="20">
-        <v>8</v>
+      <c r="C41" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D41" s="17">
         <f t="shared" si="1"/>
@@ -1792,8 +1828,8 @@
       <c r="B42" s="21">
         <v>2021</v>
       </c>
-      <c r="C42" s="21">
-        <v>7</v>
+      <c r="C42" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="1"/>
@@ -1818,8 +1854,8 @@
       <c r="B43" s="20">
         <v>2021</v>
       </c>
-      <c r="C43" s="20">
-        <v>6</v>
+      <c r="C43" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D43" s="17">
         <f t="shared" si="1"/>
@@ -1844,8 +1880,8 @@
       <c r="B44" s="21">
         <v>2021</v>
       </c>
-      <c r="C44" s="21">
-        <v>5</v>
+      <c r="C44" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="1"/>
@@ -1870,8 +1906,8 @@
       <c r="B45" s="20">
         <v>2021</v>
       </c>
-      <c r="C45" s="20">
-        <v>4</v>
+      <c r="C45" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D45" s="17">
         <f t="shared" si="1"/>
@@ -1896,8 +1932,8 @@
       <c r="B46" s="21">
         <v>2021</v>
       </c>
-      <c r="C46" s="21">
-        <v>3</v>
+      <c r="C46" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="1"/>
@@ -1922,8 +1958,8 @@
       <c r="B47" s="20">
         <v>2021</v>
       </c>
-      <c r="C47" s="20">
-        <v>2</v>
+      <c r="C47" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D47" s="17">
         <f t="shared" si="1"/>
@@ -1948,8 +1984,8 @@
       <c r="B48" s="22">
         <v>2021</v>
       </c>
-      <c r="C48" s="22">
-        <v>1</v>
+      <c r="C48" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D48" s="7">
         <f t="shared" si="1"/>
@@ -1974,8 +2010,8 @@
       <c r="B49" s="23">
         <v>2020</v>
       </c>
-      <c r="C49" s="23">
-        <v>12</v>
+      <c r="C49" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D49" s="18">
         <f t="shared" si="1"/>
@@ -2000,8 +2036,8 @@
       <c r="B50" s="21">
         <v>2020</v>
       </c>
-      <c r="C50" s="21">
-        <v>11</v>
+      <c r="C50" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="1"/>
@@ -2026,8 +2062,8 @@
       <c r="B51" s="20">
         <v>2020</v>
       </c>
-      <c r="C51" s="20">
-        <v>10</v>
+      <c r="C51" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="D51" s="17">
         <f t="shared" si="1"/>
@@ -2052,8 +2088,8 @@
       <c r="B52" s="21">
         <v>2020</v>
       </c>
-      <c r="C52" s="21">
-        <v>9</v>
+      <c r="C52" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="1"/>
@@ -2078,8 +2114,8 @@
       <c r="B53" s="20">
         <v>2020</v>
       </c>
-      <c r="C53" s="20">
-        <v>8</v>
+      <c r="C53" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D53" s="17">
         <f t="shared" si="1"/>
@@ -2104,8 +2140,8 @@
       <c r="B54" s="21">
         <v>2020</v>
       </c>
-      <c r="C54" s="21">
-        <v>7</v>
+      <c r="C54" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="1"/>
@@ -2130,8 +2166,8 @@
       <c r="B55" s="20">
         <v>2020</v>
       </c>
-      <c r="C55" s="20">
-        <v>6</v>
+      <c r="C55" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="1"/>
@@ -2156,8 +2192,8 @@
       <c r="B56" s="21">
         <v>2020</v>
       </c>
-      <c r="C56" s="21">
-        <v>5</v>
+      <c r="C56" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" ref="D56:D84" si="2">SUM(E56:L56)</f>
@@ -2182,8 +2218,8 @@
       <c r="B57" s="20">
         <v>2020</v>
       </c>
-      <c r="C57" s="20">
-        <v>4</v>
+      <c r="C57" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D57" s="17">
         <f t="shared" si="2"/>
@@ -2208,8 +2244,8 @@
       <c r="B58" s="21">
         <v>2020</v>
       </c>
-      <c r="C58" s="21">
-        <v>3</v>
+      <c r="C58" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="2"/>
@@ -2238,8 +2274,8 @@
       <c r="B59" s="20">
         <v>2020</v>
       </c>
-      <c r="C59" s="20">
-        <v>2</v>
+      <c r="C59" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D59" s="17">
         <f t="shared" si="2"/>
@@ -2268,8 +2304,8 @@
       <c r="B60" s="22">
         <v>2020</v>
       </c>
-      <c r="C60" s="22">
-        <v>1</v>
+      <c r="C60" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D60" s="7">
         <f t="shared" si="2"/>
@@ -2298,8 +2334,8 @@
       <c r="B61" s="23">
         <v>2019</v>
       </c>
-      <c r="C61" s="23">
-        <v>12</v>
+      <c r="C61" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D61" s="18">
         <f t="shared" si="2"/>
@@ -2320,8 +2356,8 @@
       <c r="B62" s="21">
         <v>2019</v>
       </c>
-      <c r="C62" s="21">
-        <v>11</v>
+      <c r="C62" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="2"/>
@@ -2342,8 +2378,8 @@
       <c r="B63" s="20">
         <v>2019</v>
       </c>
-      <c r="C63" s="20">
-        <v>10</v>
+      <c r="C63" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="D63" s="17">
         <f t="shared" si="2"/>
@@ -2363,8 +2399,8 @@
       <c r="B64" s="21">
         <v>2019</v>
       </c>
-      <c r="C64" s="21">
-        <v>9</v>
+      <c r="C64" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="2"/>
@@ -2385,8 +2421,8 @@
       <c r="B65" s="20">
         <v>2019</v>
       </c>
-      <c r="C65" s="20">
-        <v>8</v>
+      <c r="C65" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D65" s="17">
         <f t="shared" si="2"/>
@@ -2406,8 +2442,8 @@
       <c r="B66" s="21">
         <v>2019</v>
       </c>
-      <c r="C66" s="21">
-        <v>7</v>
+      <c r="C66" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="2"/>
@@ -2428,8 +2464,8 @@
       <c r="B67" s="20">
         <v>2019</v>
       </c>
-      <c r="C67" s="20">
-        <v>6</v>
+      <c r="C67" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D67" s="17">
         <f t="shared" si="2"/>
@@ -2449,8 +2485,8 @@
       <c r="B68" s="21">
         <v>2019</v>
       </c>
-      <c r="C68" s="21">
-        <v>5</v>
+      <c r="C68" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="2"/>
@@ -2471,8 +2507,8 @@
       <c r="B69" s="20">
         <v>2019</v>
       </c>
-      <c r="C69" s="20">
-        <v>4</v>
+      <c r="C69" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D69" s="17">
         <f t="shared" si="2"/>
@@ -2492,8 +2528,8 @@
       <c r="B70" s="21">
         <v>2019</v>
       </c>
-      <c r="C70" s="21">
-        <v>3</v>
+      <c r="C70" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="2"/>
@@ -2514,8 +2550,8 @@
       <c r="B71" s="20">
         <v>2019</v>
       </c>
-      <c r="C71" s="20">
-        <v>2</v>
+      <c r="C71" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D71" s="17">
         <f t="shared" si="2"/>
@@ -2535,8 +2571,8 @@
       <c r="B72" s="22">
         <v>2019</v>
       </c>
-      <c r="C72" s="22">
-        <v>1</v>
+      <c r="C72" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" si="2"/>
@@ -2557,8 +2593,8 @@
       <c r="B73" s="23">
         <v>2018</v>
       </c>
-      <c r="C73" s="23">
-        <v>12</v>
+      <c r="C73" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="D73" s="18">
         <f t="shared" si="2"/>
@@ -2579,8 +2615,8 @@
       <c r="B74" s="21">
         <v>2018</v>
       </c>
-      <c r="C74" s="21">
-        <v>11</v>
+      <c r="C74" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="2"/>
@@ -2601,8 +2637,8 @@
       <c r="B75" s="20">
         <v>2018</v>
       </c>
-      <c r="C75" s="20">
-        <v>10</v>
+      <c r="C75" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="D75" s="17">
         <f t="shared" si="2"/>
@@ -2622,8 +2658,8 @@
       <c r="B76" s="21">
         <v>2018</v>
       </c>
-      <c r="C76" s="21">
-        <v>9</v>
+      <c r="C76" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="2"/>
@@ -2644,8 +2680,8 @@
       <c r="B77" s="20">
         <v>2018</v>
       </c>
-      <c r="C77" s="20">
-        <v>8</v>
+      <c r="C77" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="D77" s="17">
         <f t="shared" si="2"/>
@@ -2665,8 +2701,8 @@
       <c r="B78" s="21">
         <v>2018</v>
       </c>
-      <c r="C78" s="21">
-        <v>7</v>
+      <c r="C78" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="2"/>
@@ -2687,8 +2723,8 @@
       <c r="B79" s="20">
         <v>2018</v>
       </c>
-      <c r="C79" s="20">
-        <v>6</v>
+      <c r="C79" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="D79" s="17">
         <f t="shared" si="2"/>
@@ -2708,8 +2744,8 @@
       <c r="B80" s="21">
         <v>2018</v>
       </c>
-      <c r="C80" s="21">
-        <v>5</v>
+      <c r="C80" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="2"/>
@@ -2730,8 +2766,8 @@
       <c r="B81" s="20">
         <v>2018</v>
       </c>
-      <c r="C81" s="20">
-        <v>4</v>
+      <c r="C81" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="D81" s="17">
         <f t="shared" si="2"/>
@@ -2751,8 +2787,8 @@
       <c r="B82" s="21">
         <v>2018</v>
       </c>
-      <c r="C82" s="21">
-        <v>3</v>
+      <c r="C82" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="2"/>
@@ -2773,8 +2809,8 @@
       <c r="B83" s="20">
         <v>2018</v>
       </c>
-      <c r="C83" s="20">
-        <v>2</v>
+      <c r="C83" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="D83" s="17">
         <f t="shared" si="2"/>
@@ -2794,8 +2830,8 @@
       <c r="B84" s="22">
         <v>2018</v>
       </c>
-      <c r="C84" s="22">
-        <v>1</v>
+      <c r="C84" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D84" s="7">
         <f t="shared" si="2"/>

--- a/Pasajeros_por_ruta_F.xlsx
+++ b/Pasajeros_por_ruta_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD376FB4-9B21-4C87-B66C-981E633788A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4CDEC1-83A4-481A-9DCC-45A253233505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -138,19 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Montserrat Medium"/>
       <family val="2"/>
@@ -164,32 +151,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Montserrat"/>
-      <scheme val="major"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -288,73 +292,74 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -363,6 +368,72 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -372,6 +443,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -381,6 +463,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -390,6 +483,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -399,6 +503,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -408,6 +523,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -417,6 +543,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -426,6 +563,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -447,26 +595,43 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -482,46 +647,10 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Montserrat Medium"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <bottom style="thin">
           <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -538,7 +667,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L85" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L85" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="B4:L85" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
     <filterColumn colId="0">
       <filters>
@@ -548,17 +677,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{0D188B9C-99CB-462F-9BF0-9F38E2645033}" name="Año" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{3BE5C468-7C50-486A-A919-71E2A4A22F50}" name="Mes" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A89406D1-7597-4923-8FBF-3FF21E16F079}" name="Total" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DC4632C1-FE70-4375-B58F-871EC0CAF2F1}" name="Puebla-Cholula" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C3F9457E-FD2A-46A7-A453-0D5392DE388F}" name="Chihuahua-Pacífico" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{BB9A6569-3EF3-4B65-A37B-24888119D6DA}" name="Corredor Interoceánico" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{C4CDBCE8-9F6C-4F20-AF08-13EE60DD06F0}" name="Tren Maya" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{29302711-42D8-48C7-8FB2-368D5603CCEE}" name="Suburbano" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E8E4CCE3-ECF0-43E4-A640-33DE3FA02BD0}" name="Tren Interurbano México-Toluca" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{7FDD4A10-4CCA-45B8-8F29-8523464D552C}" name="Tijuana-Tecate" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{A27EF886-7673-4784-80D5-44A25CF7C030}" name="Tequila Express" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0D188B9C-99CB-462F-9BF0-9F38E2645033}" name="Año" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{3BE5C468-7C50-486A-A919-71E2A4A22F50}" name="Mes" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A89406D1-7597-4923-8FBF-3FF21E16F079}" name="Total" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{DC4632C1-FE70-4375-B58F-871EC0CAF2F1}" name="Puebla-Cholula" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C3F9457E-FD2A-46A7-A453-0D5392DE388F}" name="Chihuahua-Pacífico" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{BB9A6569-3EF3-4B65-A37B-24888119D6DA}" name="Corredor Interoceánico" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C4CDBCE8-9F6C-4F20-AF08-13EE60DD06F0}" name="Tren Maya" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{29302711-42D8-48C7-8FB2-368D5603CCEE}" name="Suburbano" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E8E4CCE3-ECF0-43E4-A640-33DE3FA02BD0}" name="Tren Interurbano México-Toluca" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{7FDD4A10-4CCA-45B8-8F29-8523464D552C}" name="Tijuana-Tecate" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{A27EF886-7673-4784-80D5-44A25CF7C030}" name="Tequila Express" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -793,2103 +922,2104 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.59765625" style="4" customWidth="1"/>
     <col min="9" max="9" width="11.09765625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21">
+    <row r="5" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="12">
         <v>2024</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="13">
         <f t="shared" ref="D5:D24" si="0">SUM(E5:L5)</f>
         <v>4581.6660000000002</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
         <v>11.43</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="14">
         <v>3.2770000000000001</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="14">
         <v>64.197000000000003</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="14">
         <v>3863.6669999999999</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="14">
         <v>638.88499999999999</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="14">
         <v>0.21</v>
       </c>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>4287.4510000000009</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="17">
         <v>11.563000000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="17">
         <v>10.097999999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="17">
         <v>80.891000000000005</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="17">
         <v>3938.971</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="17">
         <v>245.828</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="17">
         <v>0.1</v>
       </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="21">
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>3973.7239999999997</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14">
         <v>16.422000000000001</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <v>6.7050000000000001</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="14">
         <v>65.998000000000005</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="14">
         <v>3672.7449999999999</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="14">
         <v>211.75399999999999</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="14">
         <v>0.1</v>
       </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="20">
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>3875.0760000000005</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="17">
         <v>13.523</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="17">
         <v>3.4060000000000001</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="17">
         <v>40.255000000000003</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="17">
         <v>3600.1310000000003</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="17">
         <v>217.661</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="17">
         <v>0.1</v>
       </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="21">
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>4269.5860000000011</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
         <v>11.798</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="14">
         <v>4.2240000000000002</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="14">
         <v>39.758000000000003</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="14">
         <v>3973.8030000000003</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="14">
         <v>239.90299999999999</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="14">
         <v>0.1</v>
       </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="20">
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>4207.42</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="17">
         <v>11.631</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="17">
         <v>6.4219999999999997</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="17">
         <v>42.39</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="17">
         <v>3908.5230000000001</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="17">
         <v>238.25399999999999</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="17">
         <v>0.2</v>
       </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="21">
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>3975.1469999999999</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14">
         <v>13.811999999999999</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="14">
         <v>8.5429999999999993</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="14">
         <v>45.152000000000001</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="14">
         <v>3667.9949999999999</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="14">
         <v>239.64500000000001</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="14">
         <v>0</v>
       </c>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="20">
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>4100.5679999999993</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="17">
         <v>12.536</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="17">
         <v>8.4960000000000004</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="17">
         <v>26.702000000000002</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="17">
         <v>3819.98</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="17">
         <v>232.53799999999998</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="17">
         <v>0.316</v>
       </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="22">
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" s="18">
         <v>2024</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="19">
         <f t="shared" si="0"/>
         <v>4017.011</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20">
         <v>22.772000000000002</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="20">
         <v>10.057</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="20">
         <v>28.785</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="20">
         <v>3714.4920000000002</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="20">
         <v>240.589</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="20">
         <v>0.316</v>
       </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="23">
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="21">
         <v>2023</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="22">
         <f t="shared" si="0"/>
         <v>3804.0760000000005</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23">
         <v>21.974</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23">
         <v>3781.6570000000002</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23">
         <v>0.44499999999999995</v>
       </c>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="21">
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
         <v>2023</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>3939.4789999999998</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
         <v>17.632999999999999</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
         <v>3921.846</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="20">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="15">
         <v>2023</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>4179.4459999999999</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="17">
         <v>14.574</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17">
         <v>4164.8720000000003</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="21">
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="12">
         <v>2023</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>4007.0070000000001</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
         <v>10.370000000000001</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14">
         <v>3996.6370000000002</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="20">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
         <v>2023</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>3938.4779999999996</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="17">
         <v>11.238</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17">
         <v>3927.24</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="21">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B19" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="13">
         <f t="shared" si="0"/>
         <v>3546.3380000000002</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14">
         <v>14.721</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11">
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14">
         <v>3531.6170000000002</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="20">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B20" s="15">
         <v>2023</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <f t="shared" si="0"/>
         <v>3768.971</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="17">
         <v>11.790999999999999</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17">
         <v>3757.18</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="21">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="13">
         <f t="shared" si="0"/>
         <v>3929.92</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14">
         <v>11.15</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14">
         <v>3918.77</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="20">
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <f t="shared" si="0"/>
         <v>3431.9790000000003</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="17">
         <v>13.222</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17">
         <v>3418.7570000000001</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="21">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="13">
         <f t="shared" si="0"/>
         <v>4058.8789999999999</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14">
         <v>12.682</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14">
         <v>4046.1970000000001</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="20">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <f t="shared" si="0"/>
         <v>3563.3870000000002</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="17">
         <v>12.673999999999999</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17">
         <v>3550.7130000000002</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="22">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="18">
         <v>2023</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="19">
         <f t="shared" ref="D25:D56" si="1">SUM(E25:L25)</f>
         <v>3671.2179999999998</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20">
         <v>19.355</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20">
         <v>3651.7629999999999</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8">
+      <c r="J25" s="20"/>
+      <c r="K25" s="20">
         <v>0.1</v>
       </c>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="23">
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="21">
         <v>2022</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="22">
         <f t="shared" si="1"/>
         <v>3716.8040000000001</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23">
         <v>21.569000000000003</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23">
         <v>3695.2350000000001</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="21">
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+    </row>
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
         <v>2022</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="13">
         <f t="shared" si="1"/>
         <v>3792.4360000000001</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14">
         <v>17.106999999999999</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11">
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14">
         <v>3775.3290000000002</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="20">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="15">
         <v>2022</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <f t="shared" si="1"/>
         <v>3817.527</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="17">
         <v>9.8580000000000005</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5">
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17">
         <v>3807.6689999999999</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="21">
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
         <v>2022</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="13">
         <f t="shared" si="1"/>
         <v>3627.1819999999998</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14">
         <v>0</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11">
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14">
         <v>3627.1819999999998</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="20">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="15">
         <v>2022</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <f t="shared" si="1"/>
         <v>3827.951</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="17">
         <v>12.071999999999999</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17">
         <v>3815.8789999999999</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="21">
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="13">
         <f t="shared" si="1"/>
         <v>3143.0910000000003</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14">
         <v>19.09</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11">
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14">
         <v>3124.0010000000002</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="20">
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <f t="shared" si="1"/>
         <v>3445.1189999999997</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="17">
         <v>15.439</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5">
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17">
         <v>3429.68</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="21">
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="13">
         <f t="shared" si="1"/>
         <v>3635.63</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14">
         <v>11.485000000000001</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11">
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14">
         <v>3624.145</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="20">
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <f t="shared" si="1"/>
         <v>3190.4290000000001</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="17">
         <v>14.215</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5">
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17">
         <v>3176.2139999999999</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="21">
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="13">
         <f t="shared" si="1"/>
         <v>3439.9680000000003</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14">
         <v>13.414</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11">
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14">
         <v>3426.5540000000001</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="20">
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <f t="shared" si="1"/>
         <v>2715.3740000000003</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="17">
         <v>11.969000000000001</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5">
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17">
         <v>2703.4050000000002</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="22">
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="18">
         <v>2022</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="19">
         <f t="shared" si="1"/>
         <v>2658.4659999999999</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20">
         <v>16.979000000000003</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8">
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20">
         <v>2641.4870000000001</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23">
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="21">
         <v>2021</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="22">
         <f t="shared" si="1"/>
         <v>3320.442</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="23">
         <v>17.649000000000001</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="23">
         <v>23.779999999999998</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19">
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23">
         <v>3279.0129999999999</v>
       </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-    </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="21">
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+    </row>
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
         <v>2021</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="13">
         <f t="shared" si="1"/>
         <v>3032.0039999999999</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="14">
         <v>10.33</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="14">
         <v>15.495999999999999</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11">
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14">
         <v>3006.1779999999999</v>
       </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="20">
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="15">
         <v>2021</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="16">
         <f t="shared" si="1"/>
         <v>2989.2959999999998</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="17">
         <v>10.050999999999998</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="17">
         <v>7.548</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5">
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17">
         <v>2971.4969999999998</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5">
+      <c r="J40" s="17"/>
+      <c r="K40" s="17">
         <v>0.2</v>
       </c>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="21">
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
         <v>2021</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="13">
         <f t="shared" si="1"/>
         <v>2627.3870000000002</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="14">
         <v>7.9939999999999998</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="14">
         <v>5.4749999999999996</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11">
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14">
         <v>2613.9180000000001</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="20">
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15">
         <v>2021</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="16">
         <f t="shared" si="1"/>
         <v>2537.7240000000002</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="17">
         <v>7.8689999999999989</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="17">
         <v>5.2539999999999996</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5">
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17">
         <v>2524.6010000000001</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="21">
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="13">
         <f t="shared" si="1"/>
         <v>2658.9530000000004</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="14">
         <v>10.898</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="14">
         <v>9.8620000000000001</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11">
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14">
         <v>2638.1930000000002</v>
       </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="20">
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <f t="shared" si="1"/>
         <v>2582.7369999999996</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="17">
         <v>6.34</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="17">
         <v>12.975999999999999</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5">
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17">
         <v>2563.4209999999998</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="21">
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="13">
         <f t="shared" si="1"/>
         <v>2460.3429999999998</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="14">
         <v>8.5289999999999999</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="14">
         <v>9.0289999999999999</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11">
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14">
         <v>2442.7849999999999</v>
       </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="20">
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="16">
         <f t="shared" si="1"/>
         <v>2224.2510000000002</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="17">
         <v>6.9880000000000004</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="17">
         <v>9.2619999999999987</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5">
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17">
         <v>2208.0010000000002</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="21">
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="13">
         <f t="shared" si="1"/>
         <v>2302.4969999999998</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="14">
         <v>6.681</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="14">
         <v>11.009</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11">
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14">
         <v>2284.8069999999998</v>
       </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="20">
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+    </row>
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="16">
         <f t="shared" si="1"/>
         <v>1839.0440000000001</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="17">
         <v>3.601</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="17">
         <v>7.7320000000000002</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5">
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17">
         <v>1827.711</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="22">
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="18">
         <v>2021</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="19">
         <f t="shared" si="1"/>
         <v>1782.1889999999999</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="20">
         <v>3.4740000000000002</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="20">
         <v>12.038</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8">
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20">
         <v>1766.6769999999999</v>
       </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="23">
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="21">
         <v>2020</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="22">
         <f t="shared" si="1"/>
         <v>2213.105</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="23">
         <v>6.298</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="23">
         <v>12.508000000000001</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19">
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23">
         <v>2194.299</v>
       </c>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-    </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="21">
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+    </row>
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
         <v>2020</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="13">
         <f t="shared" si="1"/>
         <v>2232.3809999999999</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="14">
         <v>7.7029999999999994</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="14">
         <v>7.0470000000000006</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11">
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14">
         <v>2217.6309999999999</v>
       </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="20">
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+    </row>
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="15">
         <v>2020</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="16">
         <f t="shared" si="1"/>
         <v>2366.31</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="17">
         <v>6.1669999999999998</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="17">
         <v>8.5240000000000009</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5">
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17">
         <v>2351.6190000000001</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="21">
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="12">
         <v>2020</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="13">
         <f t="shared" si="1"/>
         <v>2099.6819999999998</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="14">
         <v>5.3330000000000002</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="14">
         <v>7.6260000000000003</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11">
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14">
         <v>2086.723</v>
       </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="20">
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+    </row>
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="15">
         <v>2020</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="16">
         <f t="shared" si="1"/>
         <v>2049.761</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="17">
         <v>3.9379999999999997</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="17">
         <v>7.2119999999999997</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5">
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17">
         <v>2038.6109999999999</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="21">
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="13">
         <f t="shared" si="1"/>
         <v>1831.296</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="14">
         <v>3.1339999999999999</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="14">
         <v>5.9769999999999994</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11">
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14">
         <v>1822.1849999999999</v>
       </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="20">
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+    </row>
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="16">
         <f t="shared" si="1"/>
         <v>1432.1220000000001</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="17">
         <v>1.728</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="17">
         <v>4.133</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5">
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17">
         <v>1426.261</v>
       </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="21">
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="13">
         <f t="shared" ref="D57:D85" si="2">SUM(E57:L57)</f>
         <v>1162.5899999999999</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="14">
         <v>1.278</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="14">
         <v>3.4350000000000001</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11">
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14">
         <v>1157.877</v>
       </c>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="20">
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+    </row>
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <f t="shared" si="2"/>
         <v>1260.614</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="17">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="17">
         <v>3.7160000000000002</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5">
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17">
         <v>1255.808</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-    </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="21">
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="13">
         <f t="shared" si="2"/>
         <v>3638.011</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="14">
         <v>7.2459999999999996</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="14">
         <v>9.4480000000000004</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11">
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14">
         <v>3620.384</v>
       </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11">
+      <c r="J59" s="14"/>
+      <c r="K59" s="14">
         <v>0.20300000000000001</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="14">
         <v>0.73</v>
       </c>
     </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="20">
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="16">
         <f t="shared" si="2"/>
         <v>4656.6239999999998</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="17">
         <v>15.212</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="17">
         <v>13.536</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5">
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17">
         <v>4625.2049999999999</v>
       </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5">
+      <c r="J60" s="17"/>
+      <c r="K60" s="17">
         <v>0.84000000000000008</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="17">
         <v>1.831</v>
       </c>
     </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="22">
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="18">
         <v>2020</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="19">
         <f t="shared" si="2"/>
         <v>4721.3269999999993</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="20">
         <v>15.423</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="20">
         <v>18.846</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8">
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20">
         <v>4685.6679999999997</v>
       </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8">
+      <c r="J61" s="20"/>
+      <c r="K61" s="20">
         <v>0.27999999999999997</v>
       </c>
-      <c r="L61" s="8">
+      <c r="L61" s="20">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="23">
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="21">
         <v>2019</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="22">
         <f t="shared" si="2"/>
         <v>4526.3329999999996</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19">
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23">
         <v>4526.3329999999996</v>
       </c>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-    </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="21">
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
         <v>2019</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="13">
         <f t="shared" si="2"/>
         <v>4912.3609999999999</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11">
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14">
         <v>4912.3609999999999</v>
       </c>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-    </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="20">
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+    </row>
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="15">
         <v>2019</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="16">
         <f t="shared" si="2"/>
         <v>5280.4949999999999</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5">
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17">
         <v>5280.4949999999999</v>
       </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-    </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="21">
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="12">
         <v>2019</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="13">
         <f t="shared" si="2"/>
         <v>4750.1970000000001</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11">
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14">
         <v>4750.1970000000001</v>
       </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-    </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="20">
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+    </row>
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
         <v>2019</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="16">
         <f t="shared" si="2"/>
         <v>5071.6459999999997</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5">
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17">
         <v>5071.6459999999997</v>
       </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="21">
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="13">
         <f t="shared" si="2"/>
         <v>4527.0069999999996</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11">
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14">
         <v>4527.0069999999996</v>
       </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="20">
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+    </row>
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="16">
         <f t="shared" si="2"/>
         <v>4490.4489999999996</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5">
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17">
         <v>4490.4489999999996</v>
       </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="21">
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+    </row>
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="13">
         <f t="shared" si="2"/>
         <v>4830.8779999999997</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11">
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14">
         <v>4830.8779999999997</v>
       </c>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="20">
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+    </row>
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="16">
         <f t="shared" si="2"/>
         <v>4464.4589999999998</v>
       </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5">
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17">
         <v>4464.4589999999998</v>
       </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="21">
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="13">
         <f t="shared" si="2"/>
         <v>4908.1090000000004</v>
       </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11">
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14">
         <v>4908.1090000000004</v>
       </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="20">
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+    </row>
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="16">
         <f t="shared" si="2"/>
         <v>4575.8370000000004</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17">
         <v>4575.8370000000004</v>
       </c>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-    </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="22">
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="18">
         <v>2019</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="19">
         <f t="shared" si="2"/>
         <v>4798.5559999999996</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8">
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20">
         <v>4798.5559999999996</v>
       </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="23">
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+    </row>
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="21">
         <v>2018</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="22">
         <f t="shared" si="2"/>
         <v>4489</v>
       </c>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19">
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23">
         <v>4489</v>
       </c>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-    </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="21">
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+    </row>
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
         <v>2018</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="13">
         <f t="shared" si="2"/>
         <v>4974</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11">
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14">
         <v>4974</v>
       </c>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-    </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="20">
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+    </row>
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="15">
         <v>2018</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="16">
         <f t="shared" si="2"/>
         <v>5364</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5">
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17">
         <v>5364</v>
       </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-    </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="21">
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="12">
         <v>2018</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="13">
         <f t="shared" si="2"/>
         <v>4840</v>
       </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11">
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14">
         <v>4840</v>
       </c>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-    </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="20">
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+    </row>
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="15">
         <v>2018</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="16">
         <f t="shared" si="2"/>
         <v>5198</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17">
         <v>5198</v>
       </c>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-    </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="21">
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="12">
         <v>2018</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="13">
         <f t="shared" si="2"/>
         <v>4444</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11">
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14">
         <v>4444</v>
       </c>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-    </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="20">
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+    </row>
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="16">
         <f t="shared" si="2"/>
         <v>4680</v>
       </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5">
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17">
         <v>4680</v>
       </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-    </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="21">
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="13">
         <f t="shared" si="2"/>
         <v>4919</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11">
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14">
         <v>4919</v>
       </c>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-    </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="20">
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+    </row>
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="16">
         <f t="shared" si="2"/>
         <v>4795</v>
       </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17">
         <v>4795</v>
       </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="21">
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="13">
         <f t="shared" si="2"/>
         <v>4643</v>
       </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11">
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14">
         <v>4643</v>
       </c>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-    </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="20">
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+    </row>
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D84" s="16">
         <f t="shared" si="2"/>
         <v>4538</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5">
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17">
         <v>4538</v>
       </c>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="22">
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+    </row>
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="18">
         <v>2018</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="19">
         <f t="shared" si="2"/>
         <v>4571</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8">
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20">
         <v>4571</v>
       </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B86" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B87" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+      <c r="L87" s="25"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B88" s="3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Pasajeros_por_ruta_F.xlsx
+++ b/Pasajeros_por_ruta_F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Ferroviario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4CDEC1-83A4-481A-9DCC-45A253233505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CA093B-10EC-441D-92E2-8C33323E14A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_26" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -379,61 +379,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <fill>
         <patternFill patternType="solid">
@@ -635,6 +580,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -647,10 +599,58 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -667,27 +667,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L85" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="B4:L85" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L86" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B4:L86" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{0D188B9C-99CB-462F-9BF0-9F38E2645033}" name="Año" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{3BE5C468-7C50-486A-A919-71E2A4A22F50}" name="Mes" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{A89406D1-7597-4923-8FBF-3FF21E16F079}" name="Total" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{DC4632C1-FE70-4375-B58F-871EC0CAF2F1}" name="Puebla-Cholula" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C3F9457E-FD2A-46A7-A453-0D5392DE388F}" name="Chihuahua-Pacífico" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{BB9A6569-3EF3-4B65-A37B-24888119D6DA}" name="Corredor Interoceánico" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{C4CDBCE8-9F6C-4F20-AF08-13EE60DD06F0}" name="Tren Maya" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{29302711-42D8-48C7-8FB2-368D5603CCEE}" name="Suburbano" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E8E4CCE3-ECF0-43E4-A640-33DE3FA02BD0}" name="Tren Interurbano México-Toluca" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{7FDD4A10-4CCA-45B8-8F29-8523464D552C}" name="Tijuana-Tecate" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{A27EF886-7673-4784-80D5-44A25CF7C030}" name="Tequila Express" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0D188B9C-99CB-462F-9BF0-9F38E2645033}" name="Año" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{3BE5C468-7C50-486A-A919-71E2A4A22F50}" name="Mes" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A89406D1-7597-4923-8FBF-3FF21E16F079}" name="Total" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DC4632C1-FE70-4375-B58F-871EC0CAF2F1}" name="Puebla-Cholula" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C3F9457E-FD2A-46A7-A453-0D5392DE388F}" name="Chihuahua-Pacífico" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{BB9A6569-3EF3-4B65-A37B-24888119D6DA}" name="Corredor Interoceánico" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{C4CDBCE8-9F6C-4F20-AF08-13EE60DD06F0}" name="Tren Maya" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{29302711-42D8-48C7-8FB2-368D5603CCEE}" name="Suburbano" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E8E4CCE3-ECF0-43E4-A640-33DE3FA02BD0}" name="Tren Interurbano México-Toluca" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{7FDD4A10-4CCA-45B8-8F29-8523464D552C}" name="Tijuana-Tecate" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{A27EF886-7673-4784-80D5-44A25CF7C030}" name="Tequila Express" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -916,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L88"/>
+  <dimension ref="B2:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -928,14 +927,14 @@
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
     <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
@@ -992,2029 +991,2058 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="15">
         <v>2024</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" ref="D5:D25" si="0">SUM(E5:L5)</f>
+        <v>4936.7699999999995</v>
+      </c>
+      <c r="F5" s="17">
+        <v>14.587</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="H5" s="17">
+        <v>72.27</v>
+      </c>
+      <c r="I5" s="17">
+        <v>4171.9309999999996</v>
+      </c>
+      <c r="J5" s="17">
+        <v>677.37800000000004</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13">
-        <f t="shared" ref="D5:D24" si="0">SUM(E5:L5)</f>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
         <v>4581.6660000000002</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
         <v>11.43</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G6" s="14">
         <v>3.2770000000000001</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H6" s="14">
         <v>64.197000000000003</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I6" s="14">
         <v>3863.6669999999999</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J6" s="14">
         <v>638.88499999999999</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K6" s="14">
         <v>0.21</v>
       </c>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="15">
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>4287.4510000000009</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>11.563000000000001</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>10.097999999999999</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H7" s="17">
         <v>80.891000000000005</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I7" s="17">
         <v>3938.971</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J7" s="17">
         <v>245.828</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K7" s="17">
         <v>0.1</v>
       </c>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="12">
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>3973.7239999999997</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14">
         <v>16.422000000000001</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="14">
         <v>6.7050000000000001</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="14">
         <v>65.998000000000005</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="14">
         <v>3672.7449999999999</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="14">
         <v>211.75399999999999</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K8" s="14">
         <v>0.1</v>
       </c>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="15">
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>3875.0760000000005</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>13.523</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>3.4060000000000001</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="17">
         <v>40.255000000000003</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <v>3600.1310000000003</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J9" s="17">
         <v>217.661</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K9" s="17">
         <v>0.1</v>
       </c>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="12">
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>4269.5860000000011</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14">
         <v>11.798</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="14">
         <v>4.2240000000000002</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="14">
         <v>39.758000000000003</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="14">
         <v>3973.8030000000003</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J10" s="14">
         <v>239.90299999999999</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K10" s="14">
         <v>0.1</v>
       </c>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="15">
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>4207.42</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>11.631</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>6.4219999999999997</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H11" s="17">
         <v>42.39</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="17">
         <v>3908.5230000000001</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J11" s="17">
         <v>238.25399999999999</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K11" s="17">
         <v>0.2</v>
       </c>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="12">
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>3975.1469999999999</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
         <v>13.811999999999999</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="14">
         <v>8.5429999999999993</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="14">
         <v>45.152000000000001</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="14">
         <v>3667.9949999999999</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="14">
         <v>239.64500000000001</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="14">
         <v>0</v>
       </c>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="15">
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>4100.5679999999993</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>12.536</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>8.4960000000000004</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="17">
         <v>26.702000000000002</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <v>3819.98</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="17">
         <v>232.53799999999998</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K13" s="17">
         <v>0.316</v>
       </c>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="18">
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="18">
         <v>2024</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D14" s="19">
         <f t="shared" si="0"/>
         <v>4017.011</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20">
         <v>22.772000000000002</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G14" s="20">
         <v>10.057</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H14" s="20">
         <v>28.785</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I14" s="20">
         <v>3714.4920000000002</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J14" s="20">
         <v>240.589</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K14" s="20">
         <v>0.316</v>
       </c>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="21">
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="21">
         <v>2023</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D15" s="22">
         <f t="shared" si="0"/>
         <v>3804.0760000000005</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23">
         <v>21.974</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23">
         <v>3781.6570000000002</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23">
+      <c r="J15" s="23"/>
+      <c r="K15" s="23">
         <v>0.44499999999999995</v>
       </c>
-      <c r="L14" s="23"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="12">
         <v>2023</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>3939.4789999999998</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
         <v>17.632999999999999</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14">
         <v>3921.846</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="15">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
         <v>2023</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>4179.4459999999999</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>14.574</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17">
         <v>4164.8720000000003</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B17" s="12">
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="12">
         <v>2023</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <f t="shared" si="0"/>
         <v>4007.0070000000001</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14">
         <v>10.370000000000001</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14">
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
         <v>3996.6370000000002</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B18" s="15">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="15">
         <v>2023</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
         <f t="shared" si="0"/>
         <v>3938.4779999999996</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="17">
         <v>11.238</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17">
         <v>3927.24</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B19" s="12">
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <f t="shared" si="0"/>
         <v>3546.3380000000002</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14">
         <v>14.721</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14">
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14">
         <v>3531.6170000000002</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B20" s="15">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="15">
         <v>2023</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <f t="shared" si="0"/>
         <v>3768.971</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>11.790999999999999</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
         <v>3757.18</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B21" s="12">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <f t="shared" si="0"/>
         <v>3929.92</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14">
         <v>11.15</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14">
         <v>3918.77</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B22" s="15">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <f t="shared" si="0"/>
         <v>3431.9790000000003</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>13.222</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17">
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17">
         <v>3418.7570000000001</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B23" s="12">
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <f t="shared" si="0"/>
         <v>4058.8789999999999</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
         <v>12.682</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14">
         <v>4046.1970000000001</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B24" s="15">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <f t="shared" si="0"/>
         <v>3563.3870000000002</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>12.673999999999999</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17">
         <v>3550.7130000000002</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B25" s="18">
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="18">
         <v>2023</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="19">
-        <f t="shared" ref="D25:D56" si="1">SUM(E25:L25)</f>
+      <c r="D26" s="19">
+        <f t="shared" ref="D26:D57" si="1">SUM(E26:L26)</f>
         <v>3671.2179999999998</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20">
+      <c r="E26" s="20"/>
+      <c r="F26" s="20">
         <v>19.355</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20">
         <v>3651.7629999999999</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20">
+      <c r="J26" s="20"/>
+      <c r="K26" s="20">
         <v>0.1</v>
       </c>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="21">
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="21">
         <v>2022</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D27" s="22">
         <f t="shared" si="1"/>
         <v>3716.8040000000001</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23">
         <v>21.569000000000003</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23">
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23">
         <v>3695.2350000000001</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-    </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+    </row>
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="12">
         <v>2022</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <f t="shared" si="1"/>
         <v>3792.4360000000001</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14">
         <v>17.106999999999999</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14">
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14">
         <v>3775.3290000000002</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="15">
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="15">
         <v>2022</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <f t="shared" si="1"/>
         <v>3817.527</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>9.8580000000000005</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17">
         <v>3807.6689999999999</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="12">
         <v>2022</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <f t="shared" si="1"/>
         <v>3627.1819999999998</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14">
         <v>0</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14">
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14">
         <v>3627.1819999999998</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15">
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="15">
         <v>2022</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="16">
         <f t="shared" si="1"/>
         <v>3827.951</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>12.071999999999999</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17">
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17">
         <v>3815.8789999999999</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="12">
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <f t="shared" si="1"/>
         <v>3143.0910000000003</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14">
         <v>19.09</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14">
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14">
         <v>3124.0010000000002</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15">
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <f t="shared" si="1"/>
         <v>3445.1189999999997</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>15.439</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17">
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17">
         <v>3429.68</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="12">
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="13">
         <f t="shared" si="1"/>
         <v>3635.63</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14">
         <v>11.485000000000001</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14">
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14">
         <v>3624.145</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="15">
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="16">
         <f t="shared" si="1"/>
         <v>3190.4290000000001</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>14.215</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17">
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17">
         <v>3176.2139999999999</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="12">
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <f t="shared" si="1"/>
         <v>3439.9680000000003</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14">
         <v>13.414</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14">
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14">
         <v>3426.5540000000001</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="15">
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <f t="shared" si="1"/>
         <v>2715.3740000000003</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>11.969000000000001</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17">
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17">
         <v>2703.4050000000002</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="18">
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="18">
         <v>2022</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D38" s="19">
         <f t="shared" si="1"/>
         <v>2658.4659999999999</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20">
         <v>16.979000000000003</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20">
         <v>2641.4870000000001</v>
       </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="21">
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="21">
         <v>2021</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D39" s="22">
         <f t="shared" si="1"/>
         <v>3320.442</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E39" s="23">
         <v>17.649000000000001</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F39" s="23">
         <v>23.779999999999998</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23">
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23">
         <v>3279.0129999999999</v>
       </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-    </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+    </row>
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="12">
         <v>2021</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <f t="shared" si="1"/>
         <v>3032.0039999999999</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="14">
         <v>10.33</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="14">
         <v>15.495999999999999</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14">
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14">
         <v>3006.1779999999999</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="15">
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15">
         <v>2021</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <f t="shared" si="1"/>
         <v>2989.2959999999998</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>10.050999999999998</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>7.548</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17">
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17">
         <v>2971.4969999999998</v>
       </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17">
+      <c r="J41" s="17"/>
+      <c r="K41" s="17">
         <v>0.2</v>
       </c>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="12">
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="12">
         <v>2021</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <f t="shared" si="1"/>
         <v>2627.3870000000002</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>7.9939999999999998</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F42" s="14">
         <v>5.4749999999999996</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14">
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14">
         <v>2613.9180000000001</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15">
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="15">
         <v>2021</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="16">
         <f t="shared" si="1"/>
         <v>2537.7240000000002</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>7.8689999999999989</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>5.2539999999999996</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17">
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17">
         <v>2524.6010000000001</v>
       </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="12">
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <f t="shared" si="1"/>
         <v>2658.9530000000004</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E44" s="14">
         <v>10.898</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F44" s="14">
         <v>9.8620000000000001</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14">
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14">
         <v>2638.1930000000002</v>
       </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="15">
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+    </row>
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <f t="shared" si="1"/>
         <v>2582.7369999999996</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>6.34</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>12.975999999999999</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17">
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17">
         <v>2563.4209999999998</v>
       </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-    </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="12">
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="13">
         <f t="shared" si="1"/>
         <v>2460.3429999999998</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="14">
         <v>8.5289999999999999</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="14">
         <v>9.0289999999999999</v>
       </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14">
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14">
         <v>2442.7849999999999</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="15">
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+    </row>
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <f t="shared" si="1"/>
         <v>2224.2510000000002</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>6.9880000000000004</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>9.2619999999999987</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17">
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17">
         <v>2208.0010000000002</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-    </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="12">
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <f t="shared" si="1"/>
         <v>2302.4969999999998</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="14">
         <v>6.681</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F48" s="14">
         <v>11.009</v>
       </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14">
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14">
         <v>2284.8069999999998</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="15">
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <f t="shared" si="1"/>
         <v>1839.0440000000001</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>3.601</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>7.7320000000000002</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17">
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17">
         <v>1827.711</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-    </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="18">
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="18">
         <v>2021</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C50" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D50" s="19">
         <f t="shared" si="1"/>
         <v>1782.1889999999999</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E50" s="20">
         <v>3.4740000000000002</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F50" s="20">
         <v>12.038</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20">
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20">
         <v>1766.6769999999999</v>
       </c>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-    </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="21">
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="21">
         <v>2020</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C51" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D51" s="22">
         <f t="shared" si="1"/>
         <v>2213.105</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E51" s="23">
         <v>6.298</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F51" s="23">
         <v>12.508000000000001</v>
       </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23">
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23">
         <v>2194.299</v>
       </c>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-    </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+    </row>
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="12">
         <v>2020</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <f t="shared" si="1"/>
         <v>2232.3809999999999</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E52" s="14">
         <v>7.7029999999999994</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F52" s="14">
         <v>7.0470000000000006</v>
       </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14">
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14">
         <v>2217.6309999999999</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="15">
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+    </row>
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="15">
         <v>2020</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <f t="shared" si="1"/>
         <v>2366.31</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>6.1669999999999998</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>8.5240000000000009</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17">
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17">
         <v>2351.6190000000001</v>
       </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-    </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="12">
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="12">
         <v>2020</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <f t="shared" si="1"/>
         <v>2099.6819999999998</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E54" s="14">
         <v>5.3330000000000002</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F54" s="14">
         <v>7.6260000000000003</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14">
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14">
         <v>2086.723</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-    </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+    </row>
+    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="15">
         <v>2020</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="16">
         <f t="shared" si="1"/>
         <v>2049.761</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>3.9379999999999997</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>7.2119999999999997</v>
       </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17">
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17">
         <v>2038.6109999999999</v>
       </c>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-    </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="12">
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <f t="shared" si="1"/>
         <v>1831.296</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E56" s="14">
         <v>3.1339999999999999</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F56" s="14">
         <v>5.9769999999999994</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14">
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14">
         <v>1822.1849999999999</v>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="15">
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+    </row>
+    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <f t="shared" si="1"/>
         <v>1432.1220000000001</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>1.728</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>4.133</v>
       </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17">
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17">
         <v>1426.261</v>
       </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="12">
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="13">
-        <f t="shared" ref="D57:D85" si="2">SUM(E57:L57)</f>
+      <c r="D58" s="13">
+        <f t="shared" ref="D58:D86" si="2">SUM(E58:L58)</f>
         <v>1162.5899999999999</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E58" s="14">
         <v>1.278</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F58" s="14">
         <v>3.4350000000000001</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14">
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14">
         <v>1157.877</v>
       </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="15">
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+    </row>
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="16">
         <f t="shared" si="2"/>
         <v>1260.614</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>3.7160000000000002</v>
       </c>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17">
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17">
         <v>1255.808</v>
       </c>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-    </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="12">
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <f t="shared" si="2"/>
         <v>3638.011</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E60" s="14">
         <v>7.2459999999999996</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F60" s="14">
         <v>9.4480000000000004</v>
       </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14">
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14">
         <v>3620.384</v>
       </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14">
+      <c r="J60" s="14"/>
+      <c r="K60" s="14">
         <v>0.20300000000000001</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L60" s="14">
         <v>0.73</v>
       </c>
     </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="15">
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <f t="shared" si="2"/>
         <v>4656.6239999999998</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>15.212</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>13.536</v>
       </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17">
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17">
         <v>4625.2049999999999</v>
       </c>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17">
+      <c r="J61" s="17"/>
+      <c r="K61" s="17">
         <v>0.84000000000000008</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L61" s="17">
         <v>1.831</v>
       </c>
     </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="18">
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="18">
         <v>2020</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D62" s="19">
         <f t="shared" si="2"/>
         <v>4721.3269999999993</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E62" s="20">
         <v>15.423</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F62" s="20">
         <v>18.846</v>
       </c>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20">
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20">
         <v>4685.6679999999997</v>
       </c>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20">
+      <c r="J62" s="20"/>
+      <c r="K62" s="20">
         <v>0.27999999999999997</v>
       </c>
-      <c r="L61" s="20">
+      <c r="L62" s="20">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="21">
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="21">
         <v>2019</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C63" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D63" s="22">
         <f t="shared" si="2"/>
         <v>4526.3329999999996</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23">
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23">
         <v>4526.3329999999996</v>
       </c>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-    </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+    </row>
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="12">
         <v>2019</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <f t="shared" si="2"/>
         <v>4912.3609999999999</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14">
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14">
         <v>4912.3609999999999</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-    </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="15">
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+    </row>
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
         <v>2019</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <f t="shared" si="2"/>
         <v>5280.4949999999999</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17">
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17">
         <v>5280.4949999999999</v>
       </c>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="12">
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="12">
         <v>2019</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <f t="shared" si="2"/>
         <v>4750.1970000000001</v>
       </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14">
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14">
         <v>4750.1970000000001</v>
       </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-    </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+    </row>
+    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="15">
         <v>2019</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="16">
         <f t="shared" si="2"/>
         <v>5071.6459999999997</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17">
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17">
         <v>5071.6459999999997</v>
       </c>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-    </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="12">
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <f t="shared" si="2"/>
         <v>4527.0069999999996</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14">
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14">
         <v>4527.0069999999996</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-    </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="15">
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+    </row>
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <f t="shared" si="2"/>
         <v>4490.4489999999996</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17">
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17">
         <v>4490.4489999999996</v>
       </c>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-    </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="12">
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+    </row>
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <f t="shared" si="2"/>
         <v>4830.8779999999997</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14">
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14">
         <v>4830.8779999999997</v>
       </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-    </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="15">
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+    </row>
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="16">
         <f t="shared" si="2"/>
         <v>4464.4589999999998</v>
       </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17">
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17">
         <v>4464.4589999999998</v>
       </c>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-    </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="12">
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <f t="shared" si="2"/>
         <v>4908.1090000000004</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14">
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14">
         <v>4908.1090000000004</v>
       </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-    </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="15">
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+    </row>
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <f t="shared" si="2"/>
         <v>4575.8370000000004</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17">
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17">
         <v>4575.8370000000004</v>
       </c>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="18">
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+    </row>
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="18">
         <v>2019</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C74" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D74" s="19">
         <f t="shared" si="2"/>
         <v>4798.5559999999996</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20">
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20">
         <v>4798.5559999999996</v>
       </c>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-    </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="21">
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+    </row>
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="21">
         <v>2018</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C75" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D75" s="22">
         <f t="shared" si="2"/>
         <v>4489</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23">
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23">
         <v>4489</v>
       </c>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-    </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+    </row>
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="12">
         <v>2018</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <f t="shared" si="2"/>
         <v>4974</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14">
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14">
         <v>4974</v>
       </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-    </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="15">
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+    </row>
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="15">
         <v>2018</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="16">
         <f t="shared" si="2"/>
         <v>5364</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17">
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17">
         <v>5364</v>
       </c>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-    </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="12">
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="12">
         <v>2018</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <f t="shared" si="2"/>
         <v>4840</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14">
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14">
         <v>4840</v>
       </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-    </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="15">
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+    </row>
+    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="15">
         <v>2018</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="16">
         <f t="shared" si="2"/>
         <v>5198</v>
       </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17">
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17">
         <v>5198</v>
       </c>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-    </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="12">
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+    </row>
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="12">
         <v>2018</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <f t="shared" si="2"/>
         <v>4444</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14">
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14">
         <v>4444</v>
       </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-    </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="15">
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+    </row>
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="16">
         <f t="shared" si="2"/>
         <v>4680</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17">
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17">
         <v>4680</v>
       </c>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="12">
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="13">
         <f t="shared" si="2"/>
         <v>4919</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14">
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14">
         <v>4919</v>
       </c>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-    </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="15">
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+    </row>
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="16">
         <f t="shared" si="2"/>
         <v>4795</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17">
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17">
         <v>4795</v>
       </c>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-    </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="12">
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <f t="shared" si="2"/>
         <v>4643</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14">
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14">
         <v>4643</v>
       </c>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-    </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="15">
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+    </row>
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="16">
         <f t="shared" si="2"/>
         <v>4538</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17">
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17">
         <v>4538</v>
       </c>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-    </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="18">
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+    </row>
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="18">
         <v>2018</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C86" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D86" s="19">
         <f t="shared" si="2"/>
         <v>4571</v>
       </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20">
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20">
         <v>4571</v>
       </c>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B86" s="24" t="s">
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B87" s="24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B87" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L87" s="25"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="25"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B89" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Pasajeros_por_ruta_F.xlsx
+++ b/Pasajeros_por_ruta_F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CA093B-10EC-441D-92E2-8C33323E14A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621E6911-C186-4219-8D36-25FBFCBEA88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -580,13 +580,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -616,6 +609,13 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -667,8 +667,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L86" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B4:L86" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L88" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="B4:L88" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -681,12 +681,12 @@
     <tableColumn id="2" xr3:uid="{A89406D1-7597-4923-8FBF-3FF21E16F079}" name="Total" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{DC4632C1-FE70-4375-B58F-871EC0CAF2F1}" name="Puebla-Cholula" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{C3F9457E-FD2A-46A7-A453-0D5392DE388F}" name="Chihuahua-Pacífico" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{A27EF886-7673-4784-80D5-44A25CF7C030}" name="Tequila Express" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{BB9A6569-3EF3-4B65-A37B-24888119D6DA}" name="Corredor Interoceánico" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{C4CDBCE8-9F6C-4F20-AF08-13EE60DD06F0}" name="Tren Maya" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{29302711-42D8-48C7-8FB2-368D5603CCEE}" name="Suburbano" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{E8E4CCE3-ECF0-43E4-A640-33DE3FA02BD0}" name="Tren Interurbano México-Toluca" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{7FDD4A10-4CCA-45B8-8F29-8523464D552C}" name="Tijuana-Tecate" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{A27EF886-7673-4784-80D5-44A25CF7C030}" name="Tequila Express" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -915,9 +915,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L89"/>
+  <dimension ref="B2:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -929,12 +929,12 @@
     <col min="4" max="4" width="7.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.296875" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
@@ -972,23 +972,23 @@
       <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
@@ -996,153 +996,155 @@
         <v>2024</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" ref="D5:D25" si="0">SUM(E5:L5)</f>
-        <v>4936.7699999999995</v>
+        <f>SUM(E5:L5)</f>
+        <v>4591.7759999999998</v>
       </c>
       <c r="F5" s="17">
-        <v>14.587</v>
+        <v>23.620999999999999</v>
       </c>
       <c r="G5" s="17">
-        <v>0.60399999999999998</v>
+        <v>1.2429999999999999</v>
       </c>
       <c r="H5" s="17">
-        <v>72.27</v>
+        <v>5.3140000000000001</v>
       </c>
       <c r="I5" s="17">
-        <v>4171.9309999999996</v>
+        <v>111.83999999999999</v>
       </c>
       <c r="J5" s="17">
-        <v>677.37800000000004</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>3804.1489999999999</v>
+      </c>
+      <c r="K5" s="17">
+        <v>644.88599999999997</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
         <v>2024</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" si="0"/>
-        <v>4581.6660000000002</v>
+        <f>SUM(E6:L6)</f>
+        <v>4709.9220000000005</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14">
-        <v>11.43</v>
+        <v>17.656000000000002</v>
       </c>
       <c r="G6" s="14">
-        <v>3.2770000000000001</v>
+        <v>1.2979999999999998</v>
       </c>
       <c r="H6" s="14">
-        <v>64.197000000000003</v>
+        <v>1.006</v>
       </c>
       <c r="I6" s="14">
-        <v>3863.6669999999999</v>
+        <v>77.118000000000009</v>
       </c>
       <c r="J6" s="14">
-        <v>638.88499999999999</v>
+        <v>4008.3130000000001</v>
       </c>
       <c r="K6" s="14">
-        <v>0.21</v>
-      </c>
-      <c r="L6" s="14"/>
+        <v>604.00600000000009</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.52500000000000002</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="15">
         <v>2024</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>4287.4510000000009</v>
+        <f>SUM(E7:L7)</f>
+        <v>4936.7699999999995</v>
       </c>
       <c r="F7" s="17">
-        <v>11.563000000000001</v>
-      </c>
-      <c r="G7" s="17">
-        <v>10.097999999999999</v>
-      </c>
+        <v>14.587</v>
+      </c>
+      <c r="G7" s="17"/>
       <c r="H7" s="17">
-        <v>80.891000000000005</v>
+        <v>0.60400000000000009</v>
       </c>
       <c r="I7" s="17">
-        <v>3938.971</v>
+        <v>72.27</v>
       </c>
       <c r="J7" s="17">
-        <v>245.828</v>
+        <v>4171.9309999999996</v>
       </c>
       <c r="K7" s="17">
-        <v>0.1</v>
+        <v>677.37800000000004</v>
       </c>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
         <v>2024</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="0"/>
-        <v>3973.7239999999997</v>
+        <f>SUM(E8:L8)</f>
+        <v>4581.6660000000002</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14">
-        <v>16.422000000000001</v>
-      </c>
-      <c r="G8" s="14">
-        <v>6.7050000000000001</v>
-      </c>
+        <v>11.43</v>
+      </c>
+      <c r="G8" s="14"/>
       <c r="H8" s="14">
-        <v>65.998000000000005</v>
+        <v>3.2770000000000001</v>
       </c>
       <c r="I8" s="14">
-        <v>3672.7449999999999</v>
+        <v>64.197000000000003</v>
       </c>
       <c r="J8" s="14">
-        <v>211.75399999999999</v>
+        <v>3863.6669999999999</v>
       </c>
       <c r="K8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="14"/>
+        <v>638.88499999999999</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0.21000000000000002</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="15">
         <v>2024</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>3875.0760000000005</v>
+        <f>SUM(E9:L9)</f>
+        <v>4287.3510000000006</v>
       </c>
       <c r="F9" s="17">
-        <v>13.523</v>
-      </c>
-      <c r="G9" s="17">
-        <v>3.4060000000000001</v>
-      </c>
+        <v>11.563000000000001</v>
+      </c>
+      <c r="G9" s="17"/>
       <c r="H9" s="17">
-        <v>40.255000000000003</v>
+        <v>10.097999999999999</v>
       </c>
       <c r="I9" s="17">
-        <v>3600.1310000000003</v>
+        <v>80.891000000000005</v>
       </c>
       <c r="J9" s="17">
-        <v>217.661</v>
+        <v>3938.971</v>
       </c>
       <c r="K9" s="17">
-        <v>0.1</v>
+        <v>245.828</v>
       </c>
       <c r="L9" s="17"/>
     </row>
@@ -1151,253 +1153,269 @@
         <v>2024</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="13">
-        <f t="shared" si="0"/>
-        <v>4269.5860000000011</v>
+        <f>SUM(E10:L10)</f>
+        <v>3973.7239999999997</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14">
-        <v>11.798</v>
-      </c>
-      <c r="G10" s="14">
-        <v>4.2240000000000002</v>
-      </c>
+        <v>16.422000000000001</v>
+      </c>
+      <c r="G10" s="14"/>
       <c r="H10" s="14">
-        <v>39.758000000000003</v>
+        <v>6.7050000000000001</v>
       </c>
       <c r="I10" s="14">
-        <v>3973.8030000000003</v>
+        <v>65.998000000000005</v>
       </c>
       <c r="J10" s="14">
-        <v>239.90299999999999</v>
+        <v>3672.7449999999999</v>
       </c>
       <c r="K10" s="14">
+        <v>211.75399999999999</v>
+      </c>
+      <c r="L10" s="14">
         <v>0.1</v>
       </c>
-      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="15">
         <v>2024</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>4207.42</v>
+        <f>SUM(E11:L11)</f>
+        <v>3875.0760000000005</v>
       </c>
       <c r="F11" s="17">
-        <v>11.631</v>
-      </c>
-      <c r="G11" s="17">
-        <v>6.4219999999999997</v>
-      </c>
+        <v>13.523</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="17">
-        <v>42.39</v>
+        <v>3.4060000000000001</v>
       </c>
       <c r="I11" s="17">
-        <v>3908.5230000000001</v>
+        <v>40.255000000000003</v>
       </c>
       <c r="J11" s="17">
-        <v>238.25399999999999</v>
+        <v>3600.1310000000003</v>
       </c>
       <c r="K11" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="17"/>
+        <v>217.661</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
         <v>2024</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="13">
-        <f t="shared" si="0"/>
-        <v>3975.1469999999999</v>
+        <f>SUM(E12:L12)</f>
+        <v>4269.5860000000011</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14">
-        <v>13.811999999999999</v>
-      </c>
-      <c r="G12" s="14">
-        <v>8.5429999999999993</v>
-      </c>
+        <v>11.798</v>
+      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="14">
-        <v>45.152000000000001</v>
+        <v>4.2240000000000002</v>
       </c>
       <c r="I12" s="14">
-        <v>3667.9949999999999</v>
+        <v>39.758000000000003</v>
       </c>
       <c r="J12" s="14">
-        <v>239.64500000000001</v>
+        <v>3973.8030000000003</v>
       </c>
       <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14"/>
+        <v>239.90299999999999</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="15">
         <v>2024</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="16">
+        <f>SUM(E13:L13)</f>
+        <v>4207.42</v>
+      </c>
+      <c r="F13" s="17">
+        <v>11.631</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <v>6.4219999999999997</v>
+      </c>
+      <c r="I13" s="17">
+        <v>42.39</v>
+      </c>
+      <c r="J13" s="17">
+        <v>3908.5230000000001</v>
+      </c>
+      <c r="K13" s="17">
+        <v>238.25399999999999</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="13">
+        <f>SUM(E14:L14)</f>
+        <v>3975.1469999999999</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <v>13.811999999999999</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <v>8.5429999999999993</v>
+      </c>
+      <c r="I14" s="14">
+        <v>45.152000000000001</v>
+      </c>
+      <c r="J14" s="14">
+        <v>3667.9949999999999</v>
+      </c>
+      <c r="K14" s="14">
+        <v>239.64500000000001</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="16">
-        <f t="shared" si="0"/>
+      <c r="D15" s="16">
+        <f>SUM(E15:L15)</f>
         <v>4100.5679999999993</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F15" s="17">
         <v>12.536</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17">
         <v>8.4960000000000004</v>
       </c>
-      <c r="H13" s="17">
+      <c r="I15" s="17">
         <v>26.702000000000002</v>
       </c>
-      <c r="I13" s="17">
+      <c r="J15" s="17">
         <v>3819.98</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K15" s="17">
         <v>232.53799999999998</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L15" s="17">
         <v>0.316</v>
       </c>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="18">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="18">
         <v>2024</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="19">
-        <f t="shared" si="0"/>
+      <c r="D16" s="19">
+        <f>SUM(E16:L16)</f>
         <v>4017.011</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20">
         <v>22.772000000000002</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20">
         <v>10.057</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I16" s="20">
         <v>28.785</v>
       </c>
-      <c r="I14" s="20">
+      <c r="J16" s="20">
         <v>3714.4920000000002</v>
       </c>
-      <c r="J14" s="20">
+      <c r="K16" s="20">
         <v>240.589</v>
       </c>
-      <c r="K14" s="20">
+      <c r="L16" s="20">
         <v>0.316</v>
       </c>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="21">
+    </row>
+    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="21">
         <v>2023</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="22">
-        <f t="shared" si="0"/>
+      <c r="D17" s="22">
+        <f>SUM(E17:L17)</f>
         <v>3804.0760000000005</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23">
         <v>21.974</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23">
         <v>3781.6570000000002</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23">
+      <c r="K17" s="23"/>
+      <c r="L17" s="23">
         <v>0.44499999999999995</v>
       </c>
-      <c r="L15" s="23"/>
-    </row>
-    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" si="0"/>
-        <v>3939.4789999999998</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14">
-        <v>17.632999999999999</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14">
-        <v>3921.846</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="16">
-        <f t="shared" si="0"/>
-        <v>4179.4459999999999</v>
-      </c>
-      <c r="F17" s="17">
-        <v>14.574</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17">
-        <v>4164.8720000000003</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B18" s="12">
         <v>2023</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="13">
-        <f t="shared" si="0"/>
-        <v>4007.0070000000001</v>
+        <f>SUM(E18:L18)</f>
+        <v>3939.4789999999998</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14">
-        <v>10.370000000000001</v>
+        <v>17.632999999999999</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="14">
-        <v>3996.6370000000002</v>
-      </c>
-      <c r="J18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14">
+        <v>3921.846</v>
+      </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
@@ -1406,21 +1424,21 @@
         <v>2023</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" si="0"/>
-        <v>3938.4779999999996</v>
+        <f>SUM(E19:L19)</f>
+        <v>4179.4459999999999</v>
       </c>
       <c r="F19" s="17">
-        <v>11.238</v>
+        <v>14.574</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="17">
-        <v>3927.24</v>
-      </c>
-      <c r="J19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17">
+        <v>4164.8720000000003</v>
+      </c>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
     </row>
@@ -1429,22 +1447,22 @@
         <v>2023</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D20" s="13">
-        <f t="shared" si="0"/>
-        <v>3546.3380000000002</v>
+        <f>SUM(E20:L20)</f>
+        <v>4007.0070000000001</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14">
-        <v>14.721</v>
+        <v>10.370000000000001</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="14">
-        <v>3531.6170000000002</v>
-      </c>
-      <c r="J20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14">
+        <v>3996.6370000000002</v>
+      </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
@@ -1453,21 +1471,21 @@
         <v>2023</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="0"/>
-        <v>3768.971</v>
+        <f>SUM(E21:L21)</f>
+        <v>3938.4779999999996</v>
       </c>
       <c r="F21" s="17">
-        <v>11.790999999999999</v>
+        <v>11.238</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="17">
-        <v>3757.18</v>
-      </c>
-      <c r="J21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17">
+        <v>3927.24</v>
+      </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
@@ -1476,22 +1494,22 @@
         <v>2023</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="13">
-        <f t="shared" si="0"/>
-        <v>3929.92</v>
+        <f>SUM(E22:L22)</f>
+        <v>3546.3380000000002</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14">
-        <v>11.15</v>
+        <v>14.721</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="14">
-        <v>3918.77</v>
-      </c>
-      <c r="J22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14">
+        <v>3531.6170000000002</v>
+      </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
@@ -1500,21 +1518,21 @@
         <v>2023</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="0"/>
-        <v>3431.9790000000003</v>
+        <f>SUM(E23:L23)</f>
+        <v>3768.971</v>
       </c>
       <c r="F23" s="17">
-        <v>13.222</v>
+        <v>11.790999999999999</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="17">
-        <v>3418.7570000000001</v>
-      </c>
-      <c r="J23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17">
+        <v>3757.18</v>
+      </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
@@ -1523,22 +1541,22 @@
         <v>2023</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="13">
-        <f t="shared" si="0"/>
-        <v>4058.8789999999999</v>
+        <f>SUM(E24:L24)</f>
+        <v>3929.92</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14">
-        <v>12.682</v>
+        <v>11.15</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="14">
-        <v>4046.1970000000001</v>
-      </c>
-      <c r="J24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14">
+        <v>3918.77</v>
+      </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
@@ -1547,142 +1565,142 @@
         <v>2023</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="0"/>
-        <v>3563.3870000000002</v>
+        <f>SUM(E25:L25)</f>
+        <v>3431.9790000000003</v>
       </c>
       <c r="F25" s="17">
-        <v>12.673999999999999</v>
+        <v>13.222</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="17">
-        <v>3550.7130000000002</v>
-      </c>
-      <c r="J25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17">
+        <v>3418.7570000000001</v>
+      </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="18">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="13">
+        <f>SUM(E26:L26)</f>
+        <v>4058.8789999999999</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
+        <v>12.682</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14">
+        <v>4046.1970000000001</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="16">
+        <f>SUM(E27:L27)</f>
+        <v>3563.3870000000002</v>
+      </c>
+      <c r="F27" s="17">
+        <v>12.673999999999999</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17">
+        <v>3550.7130000000002</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="19">
-        <f t="shared" ref="D26:D57" si="1">SUM(E26:L26)</f>
+      <c r="D28" s="19">
+        <f>SUM(E28:L28)</f>
         <v>3671.2179999999998</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20">
         <v>19.355</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20">
         <v>3651.7629999999999</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20">
+      <c r="K28" s="20"/>
+      <c r="L28" s="20">
         <v>0.1</v>
       </c>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="21">
+    </row>
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="21">
         <v>2022</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="22">
-        <f t="shared" si="1"/>
+      <c r="D29" s="22">
+        <f>SUM(E29:L29)</f>
         <v>3716.8040000000001</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23">
+      <c r="E29" s="23"/>
+      <c r="F29" s="23">
         <v>21.569000000000003</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23">
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23">
         <v>3695.2350000000001</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-    </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="13">
-        <f t="shared" si="1"/>
-        <v>3792.4360000000001</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14">
-        <v>17.106999999999999</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14">
-        <v>3775.3290000000002</v>
-      </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="16">
-        <f t="shared" si="1"/>
-        <v>3817.527</v>
-      </c>
-      <c r="F29" s="17">
-        <v>9.8580000000000005</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17">
-        <v>3807.6689999999999</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B30" s="12">
         <v>2022</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="13">
-        <f t="shared" si="1"/>
-        <v>3627.1819999999998</v>
+        <f>SUM(E30:L30)</f>
+        <v>3792.4360000000001</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14">
-        <v>0</v>
+        <v>17.106999999999999</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="14">
-        <v>3627.1819999999998</v>
-      </c>
-      <c r="J30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14">
+        <v>3775.3290000000002</v>
+      </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
@@ -1691,21 +1709,21 @@
         <v>2022</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D31" s="16">
-        <f t="shared" si="1"/>
-        <v>3827.951</v>
+        <f>SUM(E31:L31)</f>
+        <v>3817.527</v>
       </c>
       <c r="F31" s="17">
-        <v>12.071999999999999</v>
+        <v>9.8580000000000005</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="17">
-        <v>3815.8789999999999</v>
-      </c>
-      <c r="J31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17">
+        <v>3807.6689999999999</v>
+      </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
     </row>
@@ -1714,22 +1732,22 @@
         <v>2022</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D32" s="13">
-        <f t="shared" si="1"/>
-        <v>3143.0910000000003</v>
+        <f>SUM(E32:L32)</f>
+        <v>3627.1819999999998</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14">
-        <v>19.09</v>
+        <v>0</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="14">
-        <v>3124.0010000000002</v>
-      </c>
-      <c r="J32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14">
+        <v>3627.1819999999998</v>
+      </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
@@ -1738,21 +1756,21 @@
         <v>2022</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="16">
-        <f t="shared" si="1"/>
-        <v>3445.1189999999997</v>
+        <f>SUM(E33:L33)</f>
+        <v>3827.951</v>
       </c>
       <c r="F33" s="17">
-        <v>15.439</v>
+        <v>12.071999999999999</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="17">
-        <v>3429.68</v>
-      </c>
-      <c r="J33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17">
+        <v>3815.8789999999999</v>
+      </c>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
@@ -1761,22 +1779,22 @@
         <v>2022</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="13">
-        <f t="shared" si="1"/>
-        <v>3635.63</v>
+        <f>SUM(E34:L34)</f>
+        <v>3143.0910000000003</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14">
-        <v>11.485000000000001</v>
+        <v>19.09</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="14">
-        <v>3624.145</v>
-      </c>
-      <c r="J34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14">
+        <v>3124.0010000000002</v>
+      </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
@@ -1785,21 +1803,21 @@
         <v>2022</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" s="16">
-        <f t="shared" si="1"/>
-        <v>3190.4290000000001</v>
+        <f>SUM(E35:L35)</f>
+        <v>3445.1189999999997</v>
       </c>
       <c r="F35" s="17">
-        <v>14.215</v>
+        <v>15.439</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="17">
-        <v>3176.2139999999999</v>
-      </c>
-      <c r="J35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17">
+        <v>3429.68</v>
+      </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
@@ -1808,22 +1826,22 @@
         <v>2022</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" s="13">
-        <f t="shared" si="1"/>
-        <v>3439.9680000000003</v>
+        <f>SUM(E36:L36)</f>
+        <v>3635.63</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14">
-        <v>13.414</v>
+        <v>11.485000000000001</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="14">
-        <v>3426.5540000000001</v>
-      </c>
-      <c r="J36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14">
+        <v>3624.145</v>
+      </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
@@ -1832,151 +1850,144 @@
         <v>2022</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="16">
-        <f t="shared" si="1"/>
-        <v>2715.3740000000003</v>
+        <f>SUM(E37:L37)</f>
+        <v>3190.4290000000001</v>
       </c>
       <c r="F37" s="17">
-        <v>11.969000000000001</v>
+        <v>14.215</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="17">
-        <v>2703.4050000000002</v>
-      </c>
-      <c r="J37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17">
+        <v>3176.2139999999999</v>
+      </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
     </row>
     <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="18">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="13">
+        <f>SUM(E38:L38)</f>
+        <v>3439.9680000000003</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14">
+        <v>13.414</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14">
+        <v>3426.5540000000001</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="16">
+        <f>SUM(E39:L39)</f>
+        <v>2715.3740000000003</v>
+      </c>
+      <c r="F39" s="17">
+        <v>11.969000000000001</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17">
+        <v>2703.4050000000002</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="19">
-        <f t="shared" si="1"/>
+      <c r="D40" s="19">
+        <f>SUM(E40:L40)</f>
         <v>2658.4659999999999</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20">
+      <c r="E40" s="20"/>
+      <c r="F40" s="20">
         <v>16.979000000000003</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20">
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20">
         <v>2641.4870000000001</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-    </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="21">
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="21">
         <v>2021</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="22">
-        <f t="shared" si="1"/>
+      <c r="D41" s="22">
+        <f>SUM(E41:L41)</f>
         <v>3320.442</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E41" s="23">
         <v>17.649000000000001</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F41" s="23">
         <v>23.779999999999998</v>
       </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23">
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23">
         <v>3279.0129999999999</v>
       </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-    </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="13">
-        <f t="shared" si="1"/>
-        <v>3032.0039999999999</v>
-      </c>
-      <c r="E40" s="14">
-        <v>10.33</v>
-      </c>
-      <c r="F40" s="14">
-        <v>15.495999999999999</v>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14">
-        <v>3006.1779999999999</v>
-      </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="16">
-        <f t="shared" si="1"/>
-        <v>2989.2959999999998</v>
-      </c>
-      <c r="E41" s="17">
-        <v>10.050999999999998</v>
-      </c>
-      <c r="F41" s="17">
-        <v>7.548</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17">
-        <v>2971.4969999999998</v>
-      </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="L41" s="17"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B42" s="12">
         <v>2021</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42" s="13">
-        <f t="shared" si="1"/>
-        <v>2627.3870000000002</v>
+        <f>SUM(E42:L42)</f>
+        <v>3032.0039999999999</v>
       </c>
       <c r="E42" s="14">
-        <v>7.9939999999999998</v>
+        <v>10.33</v>
       </c>
       <c r="F42" s="14">
-        <v>5.4749999999999996</v>
+        <v>15.495999999999999</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="14">
-        <v>2613.9180000000001</v>
-      </c>
-      <c r="J42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14">
+        <v>3006.1779999999999</v>
+      </c>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
@@ -1985,50 +1996,52 @@
         <v>2021</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D43" s="16">
-        <f t="shared" si="1"/>
-        <v>2537.7240000000002</v>
+        <f>SUM(E43:L43)</f>
+        <v>2989.2959999999998</v>
       </c>
       <c r="E43" s="17">
-        <v>7.8689999999999989</v>
+        <v>10.050999999999998</v>
       </c>
       <c r="F43" s="17">
-        <v>5.2539999999999996</v>
+        <v>7.548</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="17">
-        <v>2524.6010000000001</v>
-      </c>
-      <c r="J43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17">
+        <v>2971.4969999999998</v>
+      </c>
       <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
+      <c r="L43" s="17">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B44" s="12">
         <v>2021</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D44" s="13">
-        <f t="shared" si="1"/>
-        <v>2658.9530000000004</v>
+        <f>SUM(E44:L44)</f>
+        <v>2627.3870000000002</v>
       </c>
       <c r="E44" s="14">
-        <v>10.898</v>
+        <v>7.9939999999999998</v>
       </c>
       <c r="F44" s="14">
-        <v>9.8620000000000001</v>
+        <v>5.4749999999999996</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="14">
-        <v>2638.1930000000002</v>
-      </c>
-      <c r="J44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14">
+        <v>2613.9180000000001</v>
+      </c>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
@@ -2037,24 +2050,24 @@
         <v>2021</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" s="16">
-        <f t="shared" si="1"/>
-        <v>2582.7369999999996</v>
+        <f>SUM(E45:L45)</f>
+        <v>2537.7240000000002</v>
       </c>
       <c r="E45" s="17">
-        <v>6.34</v>
+        <v>7.8689999999999989</v>
       </c>
       <c r="F45" s="17">
-        <v>12.975999999999999</v>
+        <v>5.2539999999999996</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="17">
-        <v>2563.4209999999998</v>
-      </c>
-      <c r="J45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17">
+        <v>2524.6010000000001</v>
+      </c>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
     </row>
@@ -2063,24 +2076,24 @@
         <v>2021</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" s="13">
-        <f t="shared" si="1"/>
-        <v>2460.3429999999998</v>
+        <f>SUM(E46:L46)</f>
+        <v>2658.9530000000004</v>
       </c>
       <c r="E46" s="14">
-        <v>8.5289999999999999</v>
+        <v>10.898</v>
       </c>
       <c r="F46" s="14">
-        <v>9.0289999999999999</v>
+        <v>9.8620000000000001</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="14">
-        <v>2442.7849999999999</v>
-      </c>
-      <c r="J46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14">
+        <v>2638.1930000000002</v>
+      </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
@@ -2089,24 +2102,24 @@
         <v>2021</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47" s="16">
-        <f t="shared" si="1"/>
-        <v>2224.2510000000002</v>
+        <f>SUM(E47:L47)</f>
+        <v>2582.7369999999996</v>
       </c>
       <c r="E47" s="17">
-        <v>6.9880000000000004</v>
+        <v>6.34</v>
       </c>
       <c r="F47" s="17">
-        <v>9.2619999999999987</v>
+        <v>12.975999999999999</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="17">
-        <v>2208.0010000000002</v>
-      </c>
-      <c r="J47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17">
+        <v>2563.4209999999998</v>
+      </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
     </row>
@@ -2115,24 +2128,24 @@
         <v>2021</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" s="13">
-        <f t="shared" si="1"/>
-        <v>2302.4969999999998</v>
+        <f>SUM(E48:L48)</f>
+        <v>2460.3429999999998</v>
       </c>
       <c r="E48" s="14">
-        <v>6.681</v>
+        <v>8.5289999999999999</v>
       </c>
       <c r="F48" s="14">
-        <v>11.009</v>
+        <v>9.0289999999999999</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="14">
-        <v>2284.8069999999998</v>
-      </c>
-      <c r="J48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14">
+        <v>2442.7849999999999</v>
+      </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
     </row>
@@ -2141,154 +2154,154 @@
         <v>2021</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49" s="16">
-        <f t="shared" si="1"/>
-        <v>1839.0440000000001</v>
+        <f>SUM(E49:L49)</f>
+        <v>2224.2510000000002</v>
       </c>
       <c r="E49" s="17">
-        <v>3.601</v>
+        <v>6.9880000000000004</v>
       </c>
       <c r="F49" s="17">
-        <v>7.7320000000000002</v>
+        <v>9.2619999999999987</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="17">
-        <v>1827.711</v>
-      </c>
-      <c r="J49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17">
+        <v>2208.0010000000002</v>
+      </c>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
     </row>
     <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="18">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="13">
+        <f>SUM(E50:L50)</f>
+        <v>2302.4969999999998</v>
+      </c>
+      <c r="E50" s="14">
+        <v>6.681</v>
+      </c>
+      <c r="F50" s="14">
+        <v>11.009</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14">
+        <v>2284.8069999999998</v>
+      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+    </row>
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="16">
+        <f>SUM(E51:L51)</f>
+        <v>1839.0440000000001</v>
+      </c>
+      <c r="E51" s="17">
+        <v>3.601</v>
+      </c>
+      <c r="F51" s="17">
+        <v>7.7320000000000002</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17">
+        <v>1827.711</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="19">
-        <f t="shared" si="1"/>
+      <c r="D52" s="19">
+        <f>SUM(E52:L52)</f>
         <v>1782.1889999999999</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E52" s="20">
         <v>3.4740000000000002</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F52" s="20">
         <v>12.038</v>
       </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20">
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20">
         <v>1766.6769999999999</v>
       </c>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-    </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="21">
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="21">
         <v>2020</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C53" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="22">
-        <f t="shared" si="1"/>
+      <c r="D53" s="22">
+        <f>SUM(E53:L53)</f>
         <v>2213.105</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E53" s="23">
         <v>6.298</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F53" s="23">
         <v>12.508000000000001</v>
       </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23">
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23">
         <v>2194.299</v>
       </c>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-    </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="13">
-        <f t="shared" si="1"/>
-        <v>2232.3809999999999</v>
-      </c>
-      <c r="E52" s="14">
-        <v>7.7029999999999994</v>
-      </c>
-      <c r="F52" s="14">
-        <v>7.0470000000000006</v>
-      </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14">
-        <v>2217.6309999999999</v>
-      </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-    </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="16">
-        <f t="shared" si="1"/>
-        <v>2366.31</v>
-      </c>
-      <c r="E53" s="17">
-        <v>6.1669999999999998</v>
-      </c>
-      <c r="F53" s="17">
-        <v>8.5240000000000009</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17">
-        <v>2351.6190000000001</v>
-      </c>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
     </row>
     <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B54" s="12">
         <v>2020</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54" s="13">
-        <f t="shared" si="1"/>
-        <v>2099.6819999999998</v>
+        <f>SUM(E54:L54)</f>
+        <v>2232.3809999999999</v>
       </c>
       <c r="E54" s="14">
-        <v>5.3330000000000002</v>
+        <v>7.7029999999999994</v>
       </c>
       <c r="F54" s="14">
-        <v>7.6260000000000003</v>
+        <v>7.0470000000000006</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
-      <c r="I54" s="14">
-        <v>2086.723</v>
-      </c>
-      <c r="J54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14">
+        <v>2217.6309999999999</v>
+      </c>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
     </row>
@@ -2297,24 +2310,24 @@
         <v>2020</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D55" s="16">
-        <f t="shared" si="1"/>
-        <v>2049.761</v>
+        <f>SUM(E55:L55)</f>
+        <v>2366.31</v>
       </c>
       <c r="E55" s="17">
-        <v>3.9379999999999997</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="F55" s="17">
-        <v>7.2119999999999997</v>
+        <v>8.5240000000000009</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
-      <c r="I55" s="17">
-        <v>2038.6109999999999</v>
-      </c>
-      <c r="J55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17">
+        <v>2351.6190000000001</v>
+      </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
     </row>
@@ -2323,24 +2336,24 @@
         <v>2020</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D56" s="13">
-        <f t="shared" si="1"/>
-        <v>1831.296</v>
+        <f>SUM(E56:L56)</f>
+        <v>2099.6819999999998</v>
       </c>
       <c r="E56" s="14">
-        <v>3.1339999999999999</v>
+        <v>5.3330000000000002</v>
       </c>
       <c r="F56" s="14">
-        <v>5.9769999999999994</v>
+        <v>7.6260000000000003</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
-      <c r="I56" s="14">
-        <v>1822.1849999999999</v>
-      </c>
-      <c r="J56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14">
+        <v>2086.723</v>
+      </c>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
     </row>
@@ -2349,24 +2362,24 @@
         <v>2020</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57" s="16">
-        <f t="shared" si="1"/>
-        <v>1432.1220000000001</v>
+        <f>SUM(E57:L57)</f>
+        <v>2049.761</v>
       </c>
       <c r="E57" s="17">
-        <v>1.728</v>
+        <v>3.9379999999999997</v>
       </c>
       <c r="F57" s="17">
-        <v>4.133</v>
+        <v>7.2119999999999997</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
-      <c r="I57" s="17">
-        <v>1426.261</v>
-      </c>
-      <c r="J57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17">
+        <v>2038.6109999999999</v>
+      </c>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
     </row>
@@ -2375,24 +2388,24 @@
         <v>2020</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58" s="13">
-        <f t="shared" ref="D58:D86" si="2">SUM(E58:L58)</f>
-        <v>1162.5899999999999</v>
+        <f>SUM(E58:L58)</f>
+        <v>1831.296</v>
       </c>
       <c r="E58" s="14">
-        <v>1.278</v>
+        <v>3.1339999999999999</v>
       </c>
       <c r="F58" s="14">
-        <v>3.4350000000000001</v>
+        <v>5.9769999999999994</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="14">
-        <v>1157.877</v>
-      </c>
-      <c r="J58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14">
+        <v>1822.1849999999999</v>
+      </c>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
     </row>
@@ -2401,24 +2414,24 @@
         <v>2020</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" s="16">
-        <f t="shared" si="2"/>
-        <v>1260.614</v>
+        <f>SUM(E59:L59)</f>
+        <v>1432.1220000000001</v>
       </c>
       <c r="E59" s="17">
-        <v>1.0900000000000001</v>
+        <v>1.728</v>
       </c>
       <c r="F59" s="17">
-        <v>3.7160000000000002</v>
+        <v>4.133</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
-      <c r="I59" s="17">
-        <v>1255.808</v>
-      </c>
-      <c r="J59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17">
+        <v>1426.261</v>
+      </c>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
     </row>
@@ -2427,175 +2440,184 @@
         <v>2020</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" s="13">
-        <f t="shared" si="2"/>
-        <v>3638.011</v>
+        <f>SUM(E60:L60)</f>
+        <v>1162.5899999999999</v>
       </c>
       <c r="E60" s="14">
-        <v>7.2459999999999996</v>
+        <v>1.278</v>
       </c>
       <c r="F60" s="14">
-        <v>9.4480000000000004</v>
+        <v>3.4350000000000001</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="14">
-        <v>3620.384</v>
-      </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="L60" s="14">
-        <v>0.73</v>
-      </c>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14">
+        <v>1157.877</v>
+      </c>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
     </row>
     <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B61" s="15">
         <v>2020</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D61" s="16">
-        <f t="shared" si="2"/>
-        <v>4656.6239999999998</v>
+        <f>SUM(E61:L61)</f>
+        <v>1260.614</v>
       </c>
       <c r="E61" s="17">
-        <v>15.212</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F61" s="17">
-        <v>13.536</v>
+        <v>3.7160000000000002</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
-      <c r="I61" s="17">
+      <c r="I61" s="17"/>
+      <c r="J61" s="17">
+        <v>1255.808</v>
+      </c>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+    </row>
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="13">
+        <f>SUM(E62:L62)</f>
+        <v>3638.011</v>
+      </c>
+      <c r="E62" s="14">
+        <v>7.2459999999999996</v>
+      </c>
+      <c r="F62" s="14">
+        <v>9.4480000000000004</v>
+      </c>
+      <c r="G62" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14">
+        <v>3620.384</v>
+      </c>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="16">
+        <f>SUM(E63:L63)</f>
+        <v>4656.6239999999998</v>
+      </c>
+      <c r="E63" s="17">
+        <v>15.212</v>
+      </c>
+      <c r="F63" s="17">
+        <v>13.536</v>
+      </c>
+      <c r="G63" s="17">
+        <v>1.831</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17">
         <v>4625.2049999999999</v>
       </c>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17">
+      <c r="K63" s="17"/>
+      <c r="L63" s="17">
         <v>0.84000000000000008</v>
       </c>
-      <c r="L61" s="17">
-        <v>1.831</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="18">
+    </row>
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="18">
         <v>2020</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C64" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="19">
-        <f t="shared" si="2"/>
+      <c r="D64" s="19">
+        <f>SUM(E64:L64)</f>
         <v>4721.3269999999993</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E64" s="20">
         <v>15.423</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F64" s="20">
         <v>18.846</v>
       </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20">
+      <c r="G64" s="20">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20">
         <v>4685.6679999999997</v>
       </c>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20">
+      <c r="K64" s="20"/>
+      <c r="L64" s="20">
         <v>0.27999999999999997</v>
       </c>
-      <c r="L62" s="20">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="21">
+    </row>
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="21">
         <v>2019</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C65" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="22">
-        <f t="shared" si="2"/>
+      <c r="D65" s="22">
+        <f>SUM(E65:L65)</f>
         <v>4526.3329999999996</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23">
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23">
         <v>4526.3329999999996</v>
       </c>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-    </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="13">
-        <f t="shared" si="2"/>
-        <v>4912.3609999999999</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14">
-        <v>4912.3609999999999</v>
-      </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-    </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="16">
-        <f t="shared" si="2"/>
-        <v>5280.4949999999999</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17">
-        <v>5280.4949999999999</v>
-      </c>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
     </row>
     <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B66" s="12">
         <v>2019</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D66" s="13">
-        <f t="shared" si="2"/>
-        <v>4750.1970000000001</v>
+        <f>SUM(E66:L66)</f>
+        <v>4912.3609999999999</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="14">
-        <v>4750.1970000000001</v>
-      </c>
-      <c r="J66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14">
+        <v>4912.3609999999999</v>
+      </c>
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
     </row>
@@ -2604,19 +2626,19 @@
         <v>2019</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D67" s="16">
-        <f t="shared" si="2"/>
-        <v>5071.6459999999997</v>
+        <f>SUM(E67:L67)</f>
+        <v>5280.4949999999999</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
-      <c r="I67" s="17">
-        <v>5071.6459999999997</v>
-      </c>
-      <c r="J67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17">
+        <v>5280.4949999999999</v>
+      </c>
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
     </row>
@@ -2625,20 +2647,20 @@
         <v>2019</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D68" s="13">
-        <f t="shared" si="2"/>
-        <v>4527.0069999999996</v>
+        <f>SUM(E68:L68)</f>
+        <v>4750.1970000000001</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
-      <c r="I68" s="14">
-        <v>4527.0069999999996</v>
-      </c>
-      <c r="J68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14">
+        <v>4750.1970000000001</v>
+      </c>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
     </row>
@@ -2647,19 +2669,19 @@
         <v>2019</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69" s="16">
-        <f t="shared" si="2"/>
-        <v>4490.4489999999996</v>
+        <f>SUM(E69:L69)</f>
+        <v>5071.6459999999997</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
-      <c r="I69" s="17">
-        <v>4490.4489999999996</v>
-      </c>
-      <c r="J69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17">
+        <v>5071.6459999999997</v>
+      </c>
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
     </row>
@@ -2668,20 +2690,20 @@
         <v>2019</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D70" s="13">
-        <f t="shared" si="2"/>
-        <v>4830.8779999999997</v>
+        <f>SUM(E70:L70)</f>
+        <v>4527.0069999999996</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
-      <c r="I70" s="14">
-        <v>4830.8779999999997</v>
-      </c>
-      <c r="J70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14">
+        <v>4527.0069999999996</v>
+      </c>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
     </row>
@@ -2690,19 +2712,19 @@
         <v>2019</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71" s="16">
-        <f t="shared" si="2"/>
-        <v>4464.4589999999998</v>
+        <f>SUM(E71:L71)</f>
+        <v>4490.4489999999996</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
-      <c r="I71" s="17">
-        <v>4464.4589999999998</v>
-      </c>
-      <c r="J71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17">
+        <v>4490.4489999999996</v>
+      </c>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
     </row>
@@ -2711,20 +2733,20 @@
         <v>2019</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D72" s="13">
-        <f t="shared" si="2"/>
-        <v>4908.1090000000004</v>
+        <f>SUM(E72:L72)</f>
+        <v>4830.8779999999997</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
-      <c r="I72" s="14">
-        <v>4908.1090000000004</v>
-      </c>
-      <c r="J72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14">
+        <v>4830.8779999999997</v>
+      </c>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
     </row>
@@ -2733,128 +2755,128 @@
         <v>2019</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D73" s="16">
-        <f t="shared" si="2"/>
-        <v>4575.8370000000004</v>
+        <f>SUM(E73:L73)</f>
+        <v>4464.4589999999998</v>
       </c>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
-      <c r="I73" s="17">
-        <v>4575.8370000000004</v>
-      </c>
-      <c r="J73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17">
+        <v>4464.4589999999998</v>
+      </c>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
     </row>
     <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="18">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="13">
+        <f>SUM(E74:L74)</f>
+        <v>4908.1090000000004</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14">
+        <v>4908.1090000000004</v>
+      </c>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+    </row>
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="16">
+        <f>SUM(E75:L75)</f>
+        <v>4575.8370000000004</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17">
+        <v>4575.8370000000004</v>
+      </c>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="19">
-        <f t="shared" si="2"/>
+      <c r="D76" s="19">
+        <f>SUM(E76:L76)</f>
         <v>4798.5559999999996</v>
       </c>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20">
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20">
         <v>4798.5559999999996</v>
       </c>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-    </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="21">
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+    </row>
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="21">
         <v>2018</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C77" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="22">
-        <f t="shared" si="2"/>
+      <c r="D77" s="22">
+        <f>SUM(E77:L77)</f>
         <v>4489</v>
       </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23">
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23">
         <v>4489</v>
       </c>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-    </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="13">
-        <f t="shared" si="2"/>
-        <v>4974</v>
-      </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14">
-        <v>4974</v>
-      </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-    </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="16">
-        <f t="shared" si="2"/>
-        <v>5364</v>
-      </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17">
-        <v>5364</v>
-      </c>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
     </row>
     <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="B78" s="12">
         <v>2018</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D78" s="13">
-        <f t="shared" si="2"/>
-        <v>4840</v>
+        <f>SUM(E78:L78)</f>
+        <v>4974</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
-      <c r="I78" s="14">
-        <v>4840</v>
-      </c>
-      <c r="J78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14">
+        <v>4974</v>
+      </c>
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
     </row>
@@ -2863,19 +2885,19 @@
         <v>2018</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D79" s="16">
-        <f t="shared" si="2"/>
-        <v>5198</v>
+        <f>SUM(E79:L79)</f>
+        <v>5364</v>
       </c>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="17">
-        <v>5198</v>
-      </c>
-      <c r="J79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17">
+        <v>5364</v>
+      </c>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
     </row>
@@ -2884,20 +2906,20 @@
         <v>2018</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D80" s="13">
-        <f t="shared" si="2"/>
-        <v>4444</v>
+        <f>SUM(E80:L80)</f>
+        <v>4840</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
-      <c r="I80" s="14">
-        <v>4444</v>
-      </c>
-      <c r="J80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14">
+        <v>4840</v>
+      </c>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
     </row>
@@ -2906,19 +2928,19 @@
         <v>2018</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81" s="16">
-        <f t="shared" si="2"/>
-        <v>4680</v>
+        <f>SUM(E81:L81)</f>
+        <v>5198</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
-      <c r="I81" s="17">
-        <v>4680</v>
-      </c>
-      <c r="J81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17">
+        <v>5198</v>
+      </c>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
     </row>
@@ -2927,20 +2949,20 @@
         <v>2018</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82" s="13">
-        <f t="shared" si="2"/>
-        <v>4919</v>
+        <f>SUM(E82:L82)</f>
+        <v>4444</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
-      <c r="I82" s="14">
-        <v>4919</v>
-      </c>
-      <c r="J82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14">
+        <v>4444</v>
+      </c>
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
     </row>
@@ -2949,19 +2971,19 @@
         <v>2018</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D83" s="16">
-        <f t="shared" si="2"/>
-        <v>4795</v>
+        <f>SUM(E83:L83)</f>
+        <v>4680</v>
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
-      <c r="I83" s="17">
-        <v>4795</v>
-      </c>
-      <c r="J83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17">
+        <v>4680</v>
+      </c>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
     </row>
@@ -2970,20 +2992,20 @@
         <v>2018</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D84" s="13">
-        <f t="shared" si="2"/>
-        <v>4643</v>
+        <f>SUM(E84:L84)</f>
+        <v>4919</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
-      <c r="I84" s="14">
-        <v>4643</v>
-      </c>
-      <c r="J84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14">
+        <v>4919</v>
+      </c>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
     </row>
@@ -2992,57 +3014,100 @@
         <v>2018</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D85" s="16">
-        <f t="shared" si="2"/>
-        <v>4538</v>
+        <f>SUM(E85:L85)</f>
+        <v>4795</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
-      <c r="I85" s="17">
-        <v>4538</v>
-      </c>
-      <c r="J85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17">
+        <v>4795</v>
+      </c>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
     </row>
     <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="18">
+      <c r="B86" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="13">
+        <f>SUM(E86:L86)</f>
+        <v>4643</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14">
+        <v>4643</v>
+      </c>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+    </row>
+    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="16">
+        <f>SUM(E87:L87)</f>
+        <v>4538</v>
+      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17">
+        <v>4538</v>
+      </c>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="18">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="19">
-        <f t="shared" si="2"/>
+      <c r="D88" s="19">
+        <f>SUM(E88:L88)</f>
         <v>4571</v>
       </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20">
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20">
         <v>4571</v>
       </c>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B87" s="24" t="s">
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B89" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B88" s="3" t="s">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L88" s="25"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B89" s="3" t="s">
+      <c r="L90" s="25"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Pasajeros_por_ruta_F.xlsx
+++ b/Pasajeros_por_ruta_F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621E6911-C186-4219-8D36-25FBFCBEA88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC7266-0A0F-43A4-B885-34C43927C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_26" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -580,6 +580,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -609,13 +616,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -667,8 +667,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L88" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="B4:L88" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L90" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B4:L90" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -681,12 +681,12 @@
     <tableColumn id="2" xr3:uid="{A89406D1-7597-4923-8FBF-3FF21E16F079}" name="Total" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{DC4632C1-FE70-4375-B58F-871EC0CAF2F1}" name="Puebla-Cholula" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{C3F9457E-FD2A-46A7-A453-0D5392DE388F}" name="Chihuahua-Pacífico" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{A27EF886-7673-4784-80D5-44A25CF7C030}" name="Tequila Express" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{BB9A6569-3EF3-4B65-A37B-24888119D6DA}" name="Corredor Interoceánico" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{C4CDBCE8-9F6C-4F20-AF08-13EE60DD06F0}" name="Tren Maya" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{29302711-42D8-48C7-8FB2-368D5603CCEE}" name="Suburbano" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E8E4CCE3-ECF0-43E4-A640-33DE3FA02BD0}" name="Tren Interurbano México-Toluca" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{7FDD4A10-4CCA-45B8-8F29-8523464D552C}" name="Tijuana-Tecate" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{A27EF886-7673-4784-80D5-44A25CF7C030}" name="Tequila Express" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{BB9A6569-3EF3-4B65-A37B-24888119D6DA}" name="Corredor Interoceánico" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{C4CDBCE8-9F6C-4F20-AF08-13EE60DD06F0}" name="Tren Maya" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{29302711-42D8-48C7-8FB2-368D5603CCEE}" name="Suburbano" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E8E4CCE3-ECF0-43E4-A640-33DE3FA02BD0}" name="Tren Interurbano México-Toluca" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{7FDD4A10-4CCA-45B8-8F29-8523464D552C}" name="Tijuana-Tecate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -915,13 +915,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L91"/>
+  <dimension ref="B2:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
@@ -938,7 +938,7 @@
     <col min="13" max="16384" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:12" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -956,7 +956,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
@@ -991,1667 +991,1693 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="15">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="16">
-        <f>SUM(E5:L5)</f>
-        <v>4591.7759999999998</v>
+        <f t="shared" ref="D5:D38" si="0">SUM(E5:L5)</f>
+        <v>3718.8690000000001</v>
       </c>
       <c r="F5" s="17">
-        <v>23.620999999999999</v>
+        <v>11.89</v>
       </c>
       <c r="G5" s="17">
-        <v>1.2429999999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="H5" s="17">
-        <v>5.3140000000000001</v>
+        <v>3.484</v>
       </c>
       <c r="I5" s="17">
-        <v>111.83999999999999</v>
+        <v>81.135999999999996</v>
       </c>
       <c r="J5" s="17">
-        <v>3804.1489999999999</v>
+        <v>3621.7220000000002</v>
       </c>
       <c r="K5" s="17">
-        <v>644.88599999999997</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="L5" s="17">
-        <v>0.72299999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="12">
-        <v>2024</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="13">
-        <f>SUM(E6:L6)</f>
-        <v>4709.9220000000005</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14">
-        <v>17.656000000000002</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1.2979999999999998</v>
-      </c>
-      <c r="H6" s="14">
-        <v>1.006</v>
-      </c>
-      <c r="I6" s="14">
-        <v>77.118000000000009</v>
-      </c>
-      <c r="J6" s="14">
-        <v>4008.3130000000001</v>
-      </c>
-      <c r="K6" s="14">
-        <v>604.00600000000009</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+        <v>0.24899999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>3852.1530000000002</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20">
+        <v>20.92</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.11</v>
+      </c>
+      <c r="H6" s="20">
+        <v>5.1459999999999999</v>
+      </c>
+      <c r="I6" s="20">
+        <v>112.80200000000001</v>
+      </c>
+      <c r="J6" s="20">
+        <v>3713.0650000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0.11</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="15">
         <v>2024</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="16">
-        <f>SUM(E7:L7)</f>
-        <v>4936.7699999999995</v>
+        <f t="shared" si="0"/>
+        <v>4591.7759999999998</v>
       </c>
       <c r="F7" s="17">
-        <v>14.587</v>
-      </c>
-      <c r="G7" s="17"/>
+        <v>23.620999999999999</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1.2429999999999999</v>
+      </c>
       <c r="H7" s="17">
-        <v>0.60400000000000009</v>
+        <v>5.3140000000000001</v>
       </c>
       <c r="I7" s="17">
-        <v>72.27</v>
+        <v>111.83999999999999</v>
       </c>
       <c r="J7" s="17">
-        <v>4171.9309999999996</v>
+        <v>3804.1489999999999</v>
       </c>
       <c r="K7" s="17">
-        <v>677.37800000000004</v>
-      </c>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>644.88599999999997</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <v>2024</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="13">
-        <f>SUM(E8:L8)</f>
-        <v>4581.6660000000002</v>
+        <f t="shared" si="0"/>
+        <v>4709.9220000000005</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14">
-        <v>11.43</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>17.656000000000002</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1.2979999999999998</v>
+      </c>
       <c r="H8" s="14">
-        <v>3.2770000000000001</v>
+        <v>1.006</v>
       </c>
       <c r="I8" s="14">
-        <v>64.197000000000003</v>
+        <v>77.118000000000009</v>
       </c>
       <c r="J8" s="14">
-        <v>3863.6669999999999</v>
+        <v>4008.3130000000001</v>
       </c>
       <c r="K8" s="14">
-        <v>638.88499999999999</v>
+        <v>604.00600000000009</v>
       </c>
       <c r="L8" s="14">
-        <v>0.21000000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <v>2024</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D9" s="16">
-        <f>SUM(E9:L9)</f>
-        <v>4287.3510000000006</v>
+        <f t="shared" si="0"/>
+        <v>4936.7699999999995</v>
       </c>
       <c r="F9" s="17">
-        <v>11.563000000000001</v>
+        <v>14.587</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
-        <v>10.097999999999999</v>
+        <v>0.60400000000000009</v>
       </c>
       <c r="I9" s="17">
-        <v>80.891000000000005</v>
+        <v>72.27</v>
       </c>
       <c r="J9" s="17">
-        <v>3938.971</v>
+        <v>4171.9309999999996</v>
       </c>
       <c r="K9" s="17">
-        <v>245.828</v>
-      </c>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+        <v>677.37800000000004</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>2024</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D10" s="13">
-        <f>SUM(E10:L10)</f>
-        <v>3973.7239999999997</v>
+        <f t="shared" si="0"/>
+        <v>4581.6660000000002</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14">
-        <v>16.422000000000001</v>
+        <v>11.43</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
-        <v>6.7050000000000001</v>
+        <v>3.2770000000000001</v>
       </c>
       <c r="I10" s="14">
-        <v>65.998000000000005</v>
+        <v>64.197000000000003</v>
       </c>
       <c r="J10" s="14">
-        <v>3672.7449999999999</v>
+        <v>3863.6669999999999</v>
       </c>
       <c r="K10" s="14">
-        <v>211.75399999999999</v>
+        <v>638.88499999999999</v>
       </c>
       <c r="L10" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <v>2024</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="16">
-        <f>SUM(E11:L11)</f>
-        <v>3875.0760000000005</v>
+        <f t="shared" si="0"/>
+        <v>4287.3510000000006</v>
       </c>
       <c r="F11" s="17">
-        <v>13.523</v>
+        <v>11.563000000000001</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
-        <v>3.4060000000000001</v>
+        <v>10.097999999999999</v>
       </c>
       <c r="I11" s="17">
-        <v>40.255000000000003</v>
+        <v>80.891000000000005</v>
       </c>
       <c r="J11" s="17">
-        <v>3600.1310000000003</v>
+        <v>3938.971</v>
       </c>
       <c r="K11" s="17">
-        <v>217.661</v>
-      </c>
-      <c r="L11" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+        <v>245.828</v>
+      </c>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>2024</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="13">
-        <f>SUM(E12:L12)</f>
-        <v>4269.5860000000011</v>
+        <f t="shared" si="0"/>
+        <v>3973.7239999999997</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14">
-        <v>11.798</v>
+        <v>16.422000000000001</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
-        <v>4.2240000000000002</v>
+        <v>6.7050000000000001</v>
       </c>
       <c r="I12" s="14">
-        <v>39.758000000000003</v>
+        <v>65.998000000000005</v>
       </c>
       <c r="J12" s="14">
-        <v>3973.8030000000003</v>
+        <v>3672.7449999999999</v>
       </c>
       <c r="K12" s="14">
-        <v>239.90299999999999</v>
+        <v>211.75399999999999</v>
       </c>
       <c r="L12" s="14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
         <v>2024</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="16">
-        <f>SUM(E13:L13)</f>
-        <v>4207.42</v>
+        <f t="shared" si="0"/>
+        <v>3875.0760000000005</v>
       </c>
       <c r="F13" s="17">
-        <v>11.631</v>
+        <v>13.523</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
-        <v>6.4219999999999997</v>
+        <v>3.4060000000000001</v>
       </c>
       <c r="I13" s="17">
-        <v>42.39</v>
+        <v>40.255000000000003</v>
       </c>
       <c r="J13" s="17">
-        <v>3908.5230000000001</v>
+        <v>3600.1310000000003</v>
       </c>
       <c r="K13" s="17">
-        <v>238.25399999999999</v>
+        <v>217.661</v>
       </c>
       <c r="L13" s="17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>2024</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="13">
-        <f>SUM(E14:L14)</f>
-        <v>3975.1469999999999</v>
+        <f t="shared" si="0"/>
+        <v>4269.5860000000011</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14">
-        <v>13.811999999999999</v>
+        <v>11.798</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14">
-        <v>8.5429999999999993</v>
+        <v>4.2240000000000002</v>
       </c>
       <c r="I14" s="14">
-        <v>45.152000000000001</v>
+        <v>39.758000000000003</v>
       </c>
       <c r="J14" s="14">
-        <v>3667.9949999999999</v>
+        <v>3973.8030000000003</v>
       </c>
       <c r="K14" s="14">
-        <v>239.64500000000001</v>
+        <v>239.90299999999999</v>
       </c>
       <c r="L14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="15">
         <v>2024</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="16">
-        <f>SUM(E15:L15)</f>
-        <v>4100.5679999999993</v>
+        <f t="shared" si="0"/>
+        <v>4207.42</v>
       </c>
       <c r="F15" s="17">
-        <v>12.536</v>
+        <v>11.631</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
+        <v>6.4219999999999997</v>
+      </c>
+      <c r="I15" s="17">
+        <v>42.39</v>
+      </c>
+      <c r="J15" s="17">
+        <v>3908.5230000000001</v>
+      </c>
+      <c r="K15" s="17">
+        <v>238.25399999999999</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>3975.1469999999999</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
+        <v>13.811999999999999</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
+        <v>8.5429999999999993</v>
+      </c>
+      <c r="I16" s="14">
+        <v>45.152000000000001</v>
+      </c>
+      <c r="J16" s="14">
+        <v>3667.9949999999999</v>
+      </c>
+      <c r="K16" s="14">
+        <v>239.64500000000001</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="0"/>
+        <v>4100.5679999999993</v>
+      </c>
+      <c r="F17" s="17">
+        <v>12.536</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17">
         <v>8.4960000000000004</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I17" s="17">
         <v>26.702000000000002</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J17" s="17">
         <v>3819.98</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K17" s="17">
         <v>232.53799999999998</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L17" s="17">
         <v>0.316</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="18">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="18">
         <v>2024</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19">
-        <f>SUM(E16:L16)</f>
+      <c r="D18" s="19">
+        <f t="shared" si="0"/>
         <v>4017.011</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20">
         <v>22.772000000000002</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20">
         <v>10.057</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I18" s="20">
         <v>28.785</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J18" s="20">
         <v>3714.4920000000002</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K18" s="20">
         <v>240.589</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L18" s="20">
         <v>0.316</v>
       </c>
     </row>
-    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="21">
+    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21">
         <v>2023</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="22">
-        <f>SUM(E17:L17)</f>
+      <c r="D19" s="22">
+        <f t="shared" si="0"/>
         <v>3804.0760000000005</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23">
         <v>21.974</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23">
         <v>3781.6570000000002</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23">
+      <c r="K19" s="23"/>
+      <c r="L19" s="23">
         <v>0.44499999999999995</v>
       </c>
     </row>
-    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="13">
-        <f>SUM(E18:L18)</f>
-        <v>3939.4789999999998</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14">
-        <v>17.632999999999999</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14">
-        <v>3921.846</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="16">
-        <f>SUM(E19:L19)</f>
-        <v>4179.4459999999999</v>
-      </c>
-      <c r="F19" s="17">
-        <v>14.574</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17">
-        <v>4164.8720000000003</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>2023</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="13">
-        <f>SUM(E20:L20)</f>
-        <v>4007.0070000000001</v>
+        <f t="shared" si="0"/>
+        <v>3939.4789999999998</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14">
-        <v>10.370000000000001</v>
+        <v>17.632999999999999</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14">
-        <v>3996.6370000000002</v>
+        <v>3921.846</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15">
         <v>2023</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D21" s="16">
-        <f>SUM(E21:L21)</f>
-        <v>3938.4779999999996</v>
+        <f t="shared" si="0"/>
+        <v>4179.4459999999999</v>
       </c>
       <c r="F21" s="17">
-        <v>11.238</v>
+        <v>14.574</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17">
-        <v>3927.24</v>
+        <v>4164.8720000000003</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>2023</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D22" s="13">
-        <f>SUM(E22:L22)</f>
-        <v>3546.3380000000002</v>
+        <f t="shared" si="0"/>
+        <v>4007.0070000000001</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14">
-        <v>14.721</v>
+        <v>10.370000000000001</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14">
-        <v>3531.6170000000002</v>
+        <v>3996.6370000000002</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
         <v>2023</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="16">
-        <f>SUM(E23:L23)</f>
-        <v>3768.971</v>
+        <f t="shared" si="0"/>
+        <v>3938.4779999999996</v>
       </c>
       <c r="F23" s="17">
-        <v>11.790999999999999</v>
+        <v>11.238</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17">
-        <v>3757.18</v>
+        <v>3927.24</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
     </row>
-    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>2023</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="13">
-        <f>SUM(E24:L24)</f>
-        <v>3929.92</v>
+        <f t="shared" si="0"/>
+        <v>3546.3380000000002</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14">
-        <v>11.15</v>
+        <v>14.721</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14">
-        <v>3918.77</v>
+        <v>3531.6170000000002</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
         <v>2023</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="16">
-        <f>SUM(E25:L25)</f>
-        <v>3431.9790000000003</v>
+        <f t="shared" si="0"/>
+        <v>3768.971</v>
       </c>
       <c r="F25" s="17">
-        <v>13.222</v>
+        <v>11.790999999999999</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17">
-        <v>3418.7570000000001</v>
+        <v>3757.18</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <v>2023</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="13">
-        <f>SUM(E26:L26)</f>
-        <v>4058.8789999999999</v>
+        <f t="shared" si="0"/>
+        <v>3929.92</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14">
-        <v>12.682</v>
+        <v>11.15</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14">
-        <v>4046.1970000000001</v>
+        <v>3918.77</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15">
         <v>2023</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="16">
-        <f>SUM(E27:L27)</f>
-        <v>3563.3870000000002</v>
+        <f t="shared" si="0"/>
+        <v>3431.9790000000003</v>
       </c>
       <c r="F27" s="17">
-        <v>12.673999999999999</v>
+        <v>13.222</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17">
-        <v>3550.7130000000002</v>
+        <v>3418.7570000000001</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="18">
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>4058.8789999999999</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14">
+        <v>12.682</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14">
+        <v>4046.1970000000001</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="15">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>3563.3870000000002</v>
+      </c>
+      <c r="F29" s="17">
+        <v>12.673999999999999</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17">
+        <v>3550.7130000000002</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="19">
-        <f>SUM(E28:L28)</f>
+      <c r="D30" s="19">
+        <f t="shared" si="0"/>
         <v>3671.2179999999998</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20">
+      <c r="E30" s="20"/>
+      <c r="F30" s="20">
         <v>19.355</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20">
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20">
         <v>3651.7629999999999</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20">
+      <c r="K30" s="20"/>
+      <c r="L30" s="20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="21">
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="21">
         <v>2022</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="22">
-        <f>SUM(E29:L29)</f>
+      <c r="D31" s="22">
+        <f t="shared" si="0"/>
         <v>3716.8040000000001</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23">
         <v>21.569000000000003</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23">
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23">
         <v>3695.2350000000001</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-    </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="13">
-        <f>SUM(E30:L30)</f>
-        <v>3792.4360000000001</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14">
-        <v>17.106999999999999</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14">
-        <v>3775.3290000000002</v>
-      </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="16">
-        <f>SUM(E31:L31)</f>
-        <v>3817.527</v>
-      </c>
-      <c r="F31" s="17">
-        <v>9.8580000000000005</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17">
-        <v>3807.6689999999999</v>
-      </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>2022</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" s="13">
-        <f>SUM(E32:L32)</f>
-        <v>3627.1819999999998</v>
+        <f t="shared" si="0"/>
+        <v>3792.4360000000001</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14">
-        <v>0</v>
+        <v>17.106999999999999</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14">
-        <v>3627.1819999999998</v>
+        <v>3775.3290000000002</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="15">
         <v>2022</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D33" s="16">
-        <f>SUM(E33:L33)</f>
-        <v>3827.951</v>
+        <f t="shared" si="0"/>
+        <v>3817.527</v>
       </c>
       <c r="F33" s="17">
-        <v>12.071999999999999</v>
+        <v>9.8580000000000005</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17">
-        <v>3815.8789999999999</v>
+        <v>3807.6689999999999</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
     </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <v>2022</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D34" s="13">
-        <f>SUM(E34:L34)</f>
-        <v>3143.0910000000003</v>
+        <f t="shared" si="0"/>
+        <v>3627.1819999999998</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14">
-        <v>19.09</v>
+        <v>0</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14">
-        <v>3124.0010000000002</v>
+        <v>3627.1819999999998</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="15">
         <v>2022</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="16">
-        <f>SUM(E35:L35)</f>
-        <v>3445.1189999999997</v>
+        <f t="shared" si="0"/>
+        <v>3827.951</v>
       </c>
       <c r="F35" s="17">
-        <v>15.439</v>
+        <v>12.071999999999999</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17">
-        <v>3429.68</v>
+        <v>3815.8789999999999</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
     </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <v>2022</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="13">
-        <f>SUM(E36:L36)</f>
-        <v>3635.63</v>
+        <f t="shared" si="0"/>
+        <v>3143.0910000000003</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14">
-        <v>11.485000000000001</v>
+        <v>19.09</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14">
-        <v>3624.145</v>
+        <v>3124.0010000000002</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="15">
         <v>2022</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" s="16">
-        <f>SUM(E37:L37)</f>
-        <v>3190.4290000000001</v>
+        <f t="shared" si="0"/>
+        <v>3445.1189999999997</v>
       </c>
       <c r="F37" s="17">
-        <v>14.215</v>
+        <v>15.439</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17">
-        <v>3176.2139999999999</v>
+        <v>3429.68</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
     </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <v>2022</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D38" s="13">
-        <f>SUM(E38:L38)</f>
-        <v>3439.9680000000003</v>
+        <f t="shared" si="0"/>
+        <v>3635.63</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14">
-        <v>13.414</v>
+        <v>11.485000000000001</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14">
-        <v>3426.5540000000001</v>
+        <v>3624.145</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15">
         <v>2022</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" s="16">
-        <f>SUM(E39:L39)</f>
-        <v>2715.3740000000003</v>
+        <f t="shared" ref="D39:D70" si="1">SUM(E39:L39)</f>
+        <v>3190.4290000000001</v>
       </c>
       <c r="F39" s="17">
-        <v>11.969000000000001</v>
+        <v>14.215</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17">
-        <v>2703.4050000000002</v>
+        <v>3176.2139999999999</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17"/>
     </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="18">
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="1"/>
+        <v>3439.9680000000003</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14">
+        <v>13.414</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14">
+        <v>3426.5540000000001</v>
+      </c>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="15">
+        <v>2022</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="16">
+        <f t="shared" si="1"/>
+        <v>2715.3740000000003</v>
+      </c>
+      <c r="F41" s="17">
+        <v>11.969000000000001</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17">
+        <v>2703.4050000000002</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="19">
-        <f>SUM(E40:L40)</f>
+      <c r="D42" s="19">
+        <f t="shared" si="1"/>
         <v>2658.4659999999999</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20">
+      <c r="E42" s="20"/>
+      <c r="F42" s="20">
         <v>16.979000000000003</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20">
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20">
         <v>2641.4870000000001</v>
       </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-    </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="21">
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="21">
         <v>2021</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="22">
-        <f>SUM(E41:L41)</f>
+      <c r="D43" s="22">
+        <f t="shared" si="1"/>
         <v>3320.442</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E43" s="23">
         <v>17.649000000000001</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F43" s="23">
         <v>23.779999999999998</v>
       </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23">
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23">
         <v>3279.0129999999999</v>
       </c>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-    </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="13">
-        <f>SUM(E42:L42)</f>
-        <v>3032.0039999999999</v>
-      </c>
-      <c r="E42" s="14">
-        <v>10.33</v>
-      </c>
-      <c r="F42" s="14">
-        <v>15.495999999999999</v>
-      </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14">
-        <v>3006.1779999999999</v>
-      </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-    </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="16">
-        <f>SUM(E43:L43)</f>
-        <v>2989.2959999999998</v>
-      </c>
-      <c r="E43" s="17">
-        <v>10.050999999999998</v>
-      </c>
-      <c r="F43" s="17">
-        <v>7.548</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17">
-        <v>2971.4969999999998</v>
-      </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+    </row>
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <v>2021</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" s="13">
-        <f>SUM(E44:L44)</f>
-        <v>2627.3870000000002</v>
+        <f t="shared" si="1"/>
+        <v>3032.0039999999999</v>
       </c>
       <c r="E44" s="14">
-        <v>7.9939999999999998</v>
+        <v>10.33</v>
       </c>
       <c r="F44" s="14">
-        <v>5.4749999999999996</v>
+        <v>15.495999999999999</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14">
-        <v>2613.9180000000001</v>
+        <v>3006.1779999999999</v>
       </c>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="15">
         <v>2021</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D45" s="16">
-        <f>SUM(E45:L45)</f>
-        <v>2537.7240000000002</v>
+        <f t="shared" si="1"/>
+        <v>2989.2959999999998</v>
       </c>
       <c r="E45" s="17">
-        <v>7.8689999999999989</v>
+        <v>10.050999999999998</v>
       </c>
       <c r="F45" s="17">
-        <v>5.2539999999999996</v>
+        <v>7.548</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17">
-        <v>2524.6010000000001</v>
+        <v>2971.4969999999998</v>
       </c>
       <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L45" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <v>2021</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D46" s="13">
-        <f>SUM(E46:L46)</f>
-        <v>2658.9530000000004</v>
+        <f t="shared" si="1"/>
+        <v>2627.3870000000002</v>
       </c>
       <c r="E46" s="14">
-        <v>10.898</v>
+        <v>7.9939999999999998</v>
       </c>
       <c r="F46" s="14">
-        <v>9.8620000000000001</v>
+        <v>5.4749999999999996</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14">
-        <v>2638.1930000000002</v>
+        <v>2613.9180000000001</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="15">
         <v>2021</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" s="16">
-        <f>SUM(E47:L47)</f>
-        <v>2582.7369999999996</v>
+        <f t="shared" si="1"/>
+        <v>2537.7240000000002</v>
       </c>
       <c r="E47" s="17">
-        <v>6.34</v>
+        <v>7.8689999999999989</v>
       </c>
       <c r="F47" s="17">
-        <v>12.975999999999999</v>
+        <v>5.2539999999999996</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17">
-        <v>2563.4209999999998</v>
+        <v>2524.6010000000001</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
     </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <v>2021</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" s="13">
-        <f>SUM(E48:L48)</f>
-        <v>2460.3429999999998</v>
+        <f t="shared" si="1"/>
+        <v>2658.9530000000004</v>
       </c>
       <c r="E48" s="14">
-        <v>8.5289999999999999</v>
+        <v>10.898</v>
       </c>
       <c r="F48" s="14">
-        <v>9.0289999999999999</v>
+        <v>9.8620000000000001</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14">
-        <v>2442.7849999999999</v>
+        <v>2638.1930000000002</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="15">
         <v>2021</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49" s="16">
-        <f>SUM(E49:L49)</f>
-        <v>2224.2510000000002</v>
+        <f t="shared" si="1"/>
+        <v>2582.7369999999996</v>
       </c>
       <c r="E49" s="17">
-        <v>6.9880000000000004</v>
+        <v>6.34</v>
       </c>
       <c r="F49" s="17">
-        <v>9.2619999999999987</v>
+        <v>12.975999999999999</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
       <c r="J49" s="17">
-        <v>2208.0010000000002</v>
+        <v>2563.4209999999998</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
     </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <v>2021</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" s="13">
-        <f>SUM(E50:L50)</f>
-        <v>2302.4969999999998</v>
+        <f t="shared" si="1"/>
+        <v>2460.3429999999998</v>
       </c>
       <c r="E50" s="14">
-        <v>6.681</v>
+        <v>8.5289999999999999</v>
       </c>
       <c r="F50" s="14">
-        <v>11.009</v>
+        <v>9.0289999999999999</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14">
-        <v>2284.8069999999998</v>
+        <v>2442.7849999999999</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
     </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="15">
         <v>2021</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D51" s="16">
-        <f>SUM(E51:L51)</f>
-        <v>1839.0440000000001</v>
+        <f t="shared" si="1"/>
+        <v>2224.2510000000002</v>
       </c>
       <c r="E51" s="17">
-        <v>3.601</v>
+        <v>6.9880000000000004</v>
       </c>
       <c r="F51" s="17">
-        <v>7.7320000000000002</v>
+        <v>9.2619999999999987</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17">
-        <v>1827.711</v>
+        <v>2208.0010000000002</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
     </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="18">
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" si="1"/>
+        <v>2302.4969999999998</v>
+      </c>
+      <c r="E52" s="14">
+        <v>6.681</v>
+      </c>
+      <c r="F52" s="14">
+        <v>11.009</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14">
+        <v>2284.8069999999998</v>
+      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+    </row>
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="15">
+        <v>2021</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="16">
+        <f t="shared" si="1"/>
+        <v>1839.0440000000001</v>
+      </c>
+      <c r="E53" s="17">
+        <v>3.601</v>
+      </c>
+      <c r="F53" s="17">
+        <v>7.7320000000000002</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17">
+        <v>1827.711</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="19">
-        <f>SUM(E52:L52)</f>
+      <c r="D54" s="19">
+        <f t="shared" si="1"/>
         <v>1782.1889999999999</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E54" s="20">
         <v>3.4740000000000002</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F54" s="20">
         <v>12.038</v>
       </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20">
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20">
         <v>1766.6769999999999</v>
       </c>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-    </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="21">
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="21">
         <v>2020</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C55" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="22">
-        <f>SUM(E53:L53)</f>
+      <c r="D55" s="22">
+        <f t="shared" si="1"/>
         <v>2213.105</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E55" s="23">
         <v>6.298</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F55" s="23">
         <v>12.508000000000001</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23">
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23">
         <v>2194.299</v>
       </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-    </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="13">
-        <f>SUM(E54:L54)</f>
-        <v>2232.3809999999999</v>
-      </c>
-      <c r="E54" s="14">
-        <v>7.7029999999999994</v>
-      </c>
-      <c r="F54" s="14">
-        <v>7.0470000000000006</v>
-      </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14">
-        <v>2217.6309999999999</v>
-      </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="16">
-        <f>SUM(E55:L55)</f>
-        <v>2366.31</v>
-      </c>
-      <c r="E55" s="17">
-        <v>6.1669999999999998</v>
-      </c>
-      <c r="F55" s="17">
-        <v>8.5240000000000009</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17">
-        <v>2351.6190000000001</v>
-      </c>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-    </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+    </row>
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="12">
         <v>2020</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56" s="13">
-        <f>SUM(E56:L56)</f>
-        <v>2099.6819999999998</v>
+        <f t="shared" si="1"/>
+        <v>2232.3809999999999</v>
       </c>
       <c r="E56" s="14">
-        <v>5.3330000000000002</v>
+        <v>7.7029999999999994</v>
       </c>
       <c r="F56" s="14">
-        <v>7.6260000000000003</v>
+        <v>7.0470000000000006</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14">
-        <v>2086.723</v>
+        <v>2217.6309999999999</v>
       </c>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
     </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="15">
         <v>2020</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D57" s="16">
-        <f>SUM(E57:L57)</f>
-        <v>2049.761</v>
+        <f t="shared" si="1"/>
+        <v>2366.31</v>
       </c>
       <c r="E57" s="17">
-        <v>3.9379999999999997</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="F57" s="17">
-        <v>7.2119999999999997</v>
+        <v>8.5240000000000009</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17">
-        <v>2038.6109999999999</v>
+        <v>2351.6190000000001</v>
       </c>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
     </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
         <v>2020</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D58" s="13">
-        <f>SUM(E58:L58)</f>
-        <v>1831.296</v>
+        <f t="shared" si="1"/>
+        <v>2099.6819999999998</v>
       </c>
       <c r="E58" s="14">
-        <v>3.1339999999999999</v>
+        <v>5.3330000000000002</v>
       </c>
       <c r="F58" s="14">
-        <v>5.9769999999999994</v>
+        <v>7.6260000000000003</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14">
-        <v>1822.1849999999999</v>
+        <v>2086.723</v>
       </c>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
     </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="15">
         <v>2020</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" s="16">
-        <f>SUM(E59:L59)</f>
-        <v>1432.1220000000001</v>
+        <f t="shared" si="1"/>
+        <v>2049.761</v>
       </c>
       <c r="E59" s="17">
-        <v>1.728</v>
+        <v>3.9379999999999997</v>
       </c>
       <c r="F59" s="17">
-        <v>4.133</v>
+        <v>7.2119999999999997</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17">
-        <v>1426.261</v>
+        <v>2038.6109999999999</v>
       </c>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
     </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="12">
         <v>2020</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" s="13">
-        <f>SUM(E60:L60)</f>
-        <v>1162.5899999999999</v>
+        <f t="shared" si="1"/>
+        <v>1831.296</v>
       </c>
       <c r="E60" s="14">
-        <v>1.278</v>
+        <v>3.1339999999999999</v>
       </c>
       <c r="F60" s="14">
-        <v>3.4350000000000001</v>
+        <v>5.9769999999999994</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14">
-        <v>1157.877</v>
+        <v>1822.1849999999999</v>
       </c>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
     </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="15">
         <v>2020</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="16">
-        <f>SUM(E61:L61)</f>
-        <v>1260.614</v>
+        <f t="shared" si="1"/>
+        <v>1432.1220000000001</v>
       </c>
       <c r="E61" s="17">
-        <v>1.0900000000000001</v>
+        <v>1.728</v>
       </c>
       <c r="F61" s="17">
-        <v>3.7160000000000002</v>
+        <v>4.133</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17">
-        <v>1255.808</v>
+        <v>1426.261</v>
       </c>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
     </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <v>2020</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D62" s="13">
-        <f>SUM(E62:L62)</f>
-        <v>3638.011</v>
+        <f t="shared" si="1"/>
+        <v>1162.5899999999999</v>
       </c>
       <c r="E62" s="14">
-        <v>7.2459999999999996</v>
+        <v>1.278</v>
       </c>
       <c r="F62" s="14">
-        <v>9.4480000000000004</v>
-      </c>
-      <c r="G62" s="14">
-        <v>0.73</v>
-      </c>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14">
-        <v>3620.384</v>
+        <v>1157.877</v>
       </c>
       <c r="K62" s="14"/>
-      <c r="L62" s="14">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="L62" s="14"/>
+    </row>
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="15">
         <v>2020</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63" s="16">
-        <f>SUM(E63:L63)</f>
-        <v>4656.6239999999998</v>
+        <f t="shared" si="1"/>
+        <v>1260.614</v>
       </c>
       <c r="E63" s="17">
-        <v>15.212</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F63" s="17">
-        <v>13.536</v>
-      </c>
-      <c r="G63" s="17">
-        <v>1.831</v>
-      </c>
+        <v>3.7160000000000002</v>
+      </c>
+      <c r="G63" s="17"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17">
+        <v>1255.808</v>
+      </c>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="13">
+        <f t="shared" si="1"/>
+        <v>3638.011</v>
+      </c>
+      <c r="E64" s="14">
+        <v>7.2459999999999996</v>
+      </c>
+      <c r="F64" s="14">
+        <v>9.4480000000000004</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14">
+        <v>3620.384</v>
+      </c>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="16">
+        <f t="shared" si="1"/>
+        <v>4656.6239999999998</v>
+      </c>
+      <c r="E65" s="17">
+        <v>15.212</v>
+      </c>
+      <c r="F65" s="17">
+        <v>13.536</v>
+      </c>
+      <c r="G65" s="17">
+        <v>1.831</v>
+      </c>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17">
         <v>4625.2049999999999</v>
       </c>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17">
+      <c r="K65" s="17"/>
+      <c r="L65" s="17">
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="18">
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="18">
         <v>2020</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="19">
-        <f>SUM(E64:L64)</f>
+      <c r="D66" s="19">
+        <f t="shared" si="1"/>
         <v>4721.3269999999993</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E66" s="20">
         <v>15.423</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F66" s="20">
         <v>18.846</v>
       </c>
-      <c r="G64" s="20">
+      <c r="G66" s="20">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20">
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20">
         <v>4685.6679999999997</v>
       </c>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20">
+      <c r="K66" s="20"/>
+      <c r="L66" s="20">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="21">
+    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="21">
         <v>2019</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C67" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="22">
-        <f>SUM(E65:L65)</f>
+      <c r="D67" s="22">
+        <f t="shared" si="1"/>
         <v>4526.3329999999996</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23">
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23">
         <v>4526.3329999999996</v>
       </c>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-    </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="13">
-        <f>SUM(E66:L66)</f>
-        <v>4912.3609999999999</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14">
-        <v>4912.3609999999999</v>
-      </c>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-    </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="16">
-        <f>SUM(E67:L67)</f>
-        <v>5280.4949999999999</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17">
-        <v>5280.4949999999999</v>
-      </c>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-    </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+    </row>
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="12">
         <v>2019</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D68" s="13">
-        <f>SUM(E68:L68)</f>
-        <v>4750.1970000000001</v>
+        <f t="shared" si="1"/>
+        <v>4912.3609999999999</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
@@ -2659,42 +2685,42 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14">
-        <v>4750.1970000000001</v>
+        <v>4912.3609999999999</v>
       </c>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
     </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="15">
         <v>2019</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D69" s="16">
-        <f>SUM(E69:L69)</f>
-        <v>5071.6459999999997</v>
+        <f t="shared" si="1"/>
+        <v>5280.4949999999999</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17">
-        <v>5071.6459999999997</v>
+        <v>5280.4949999999999</v>
       </c>
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
     </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="12">
         <v>2019</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D70" s="13">
-        <f>SUM(E70:L70)</f>
-        <v>4527.0069999999996</v>
+        <f t="shared" si="1"/>
+        <v>4750.1970000000001</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
@@ -2702,42 +2728,42 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14">
-        <v>4527.0069999999996</v>
+        <v>4750.1970000000001</v>
       </c>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
     </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="15">
         <v>2019</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D71" s="16">
-        <f>SUM(E71:L71)</f>
-        <v>4490.4489999999996</v>
+        <f t="shared" ref="D71:D90" si="2">SUM(E71:L71)</f>
+        <v>5071.6459999999997</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17">
-        <v>4490.4489999999996</v>
+        <v>5071.6459999999997</v>
       </c>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
     </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="12">
         <v>2019</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D72" s="13">
-        <f>SUM(E72:L72)</f>
-        <v>4830.8779999999997</v>
+        <f t="shared" si="2"/>
+        <v>4527.0069999999996</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
@@ -2745,42 +2771,42 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14">
-        <v>4830.8779999999997</v>
+        <v>4527.0069999999996</v>
       </c>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
     </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="15">
         <v>2019</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" s="16">
-        <f>SUM(E73:L73)</f>
-        <v>4464.4589999999998</v>
+        <f t="shared" si="2"/>
+        <v>4490.4489999999996</v>
       </c>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17">
-        <v>4464.4589999999998</v>
+        <v>4490.4489999999996</v>
       </c>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
     </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="12">
         <v>2019</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D74" s="13">
-        <f>SUM(E74:L74)</f>
-        <v>4908.1090000000004</v>
+        <f t="shared" si="2"/>
+        <v>4830.8779999999997</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
@@ -2788,129 +2814,129 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14">
-        <v>4908.1090000000004</v>
+        <v>4830.8779999999997</v>
       </c>
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
     </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="15">
         <v>2019</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D75" s="16">
-        <f>SUM(E75:L75)</f>
-        <v>4575.8370000000004</v>
+        <f t="shared" si="2"/>
+        <v>4464.4589999999998</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17">
-        <v>4575.8370000000004</v>
+        <v>4464.4589999999998</v>
       </c>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
     </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="18">
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="13">
+        <f t="shared" si="2"/>
+        <v>4908.1090000000004</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14">
+        <v>4908.1090000000004</v>
+      </c>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+    </row>
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="15">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="16">
+        <f t="shared" si="2"/>
+        <v>4575.8370000000004</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17">
+        <v>4575.8370000000004</v>
+      </c>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C78" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="19">
-        <f>SUM(E76:L76)</f>
+      <c r="D78" s="19">
+        <f t="shared" si="2"/>
         <v>4798.5559999999996</v>
       </c>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20">
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20">
         <v>4798.5559999999996</v>
       </c>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-    </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="21">
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+    </row>
+    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="21">
         <v>2018</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C79" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="22">
-        <f>SUM(E77:L77)</f>
+      <c r="D79" s="22">
+        <f t="shared" si="2"/>
         <v>4489</v>
       </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23">
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23">
         <v>4489</v>
       </c>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-    </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="13">
-        <f>SUM(E78:L78)</f>
-        <v>4974</v>
-      </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14">
-        <v>4974</v>
-      </c>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-    </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="16">
-        <f>SUM(E79:L79)</f>
-        <v>5364</v>
-      </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17">
-        <v>5364</v>
-      </c>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-    </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+    </row>
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="12">
         <v>2018</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D80" s="13">
-        <f>SUM(E80:L80)</f>
-        <v>4840</v>
+        <f t="shared" si="2"/>
+        <v>4974</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
@@ -2918,42 +2944,42 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14">
-        <v>4840</v>
+        <v>4974</v>
       </c>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="15">
         <v>2018</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D81" s="16">
-        <f>SUM(E81:L81)</f>
-        <v>5198</v>
+        <f t="shared" si="2"/>
+        <v>5364</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17">
-        <v>5198</v>
+        <v>5364</v>
       </c>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="12">
         <v>2018</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D82" s="13">
-        <f>SUM(E82:L82)</f>
-        <v>4444</v>
+        <f t="shared" si="2"/>
+        <v>4840</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
@@ -2961,42 +2987,42 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14">
-        <v>4444</v>
+        <v>4840</v>
       </c>
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="15">
         <v>2018</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83" s="16">
-        <f>SUM(E83:L83)</f>
-        <v>4680</v>
+        <f t="shared" si="2"/>
+        <v>5198</v>
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17">
-        <v>4680</v>
+        <v>5198</v>
       </c>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="12">
         <v>2018</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D84" s="13">
-        <f>SUM(E84:L84)</f>
-        <v>4919</v>
+        <f t="shared" si="2"/>
+        <v>4444</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
@@ -3004,42 +3030,42 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14">
-        <v>4919</v>
+        <v>4444</v>
       </c>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="15">
         <v>2018</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85" s="16">
-        <f>SUM(E85:L85)</f>
-        <v>4795</v>
+        <f t="shared" si="2"/>
+        <v>4680</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
       <c r="J85" s="17">
-        <v>4795</v>
+        <v>4680</v>
       </c>
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
     </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="12">
         <v>2018</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D86" s="13">
-        <f>SUM(E86:L86)</f>
-        <v>4643</v>
+        <f t="shared" si="2"/>
+        <v>4919</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
@@ -3047,67 +3073,110 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14">
-        <v>4643</v>
+        <v>4919</v>
       </c>
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
     </row>
-    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="15">
         <v>2018</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D87" s="16">
-        <f>SUM(E87:L87)</f>
-        <v>4538</v>
+        <f t="shared" si="2"/>
+        <v>4795</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
       <c r="J87" s="17">
-        <v>4538</v>
+        <v>4795</v>
       </c>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
     </row>
-    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="18">
+    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="13">
+        <f t="shared" si="2"/>
+        <v>4643</v>
+      </c>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14">
+        <v>4643</v>
+      </c>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+    </row>
+    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="16">
+        <f t="shared" si="2"/>
+        <v>4538</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17">
+        <v>4538</v>
+      </c>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+    </row>
+    <row r="90" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="18">
+        <v>2018</v>
+      </c>
+      <c r="C90" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="19">
-        <f>SUM(E88:L88)</f>
+      <c r="D90" s="19">
+        <f t="shared" si="2"/>
         <v>4571</v>
       </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20">
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20">
         <v>4571</v>
       </c>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B89" s="24" t="s">
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B91" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L90" s="25"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+      <c r="L92" s="25"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Pasajeros_por_ruta_F.xlsx
+++ b/Pasajeros_por_ruta_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC7266-0A0F-43A4-B885-34C43927C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB911A2-37C1-4817-8F58-57C859E04FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -667,8 +667,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L90" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
-  <autoFilter ref="B4:L90" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:L91" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="B4:L91" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -915,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L93"/>
+  <dimension ref="B2:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -992,2191 +992,2225 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>2025</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" ref="D5:D39" si="0">SUM(E5:L5)</f>
+        <v>4009.6730309999998</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
+        <v>10.374000000000001</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.189</v>
+      </c>
+      <c r="H5" s="14">
+        <v>2.927</v>
+      </c>
+      <c r="I5" s="14">
+        <v>88.156000000000006</v>
+      </c>
+      <c r="J5" s="14">
+        <v>3907.2249999999999</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.70203099999999996</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="16">
-        <f t="shared" ref="D5:D38" si="0">SUM(E5:L5)</f>
-        <v>3718.8690000000001</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>3719.2970770000002</v>
+      </c>
+      <c r="F6" s="17">
         <v>11.89</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G6" s="17">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H6" s="17">
         <v>3.484</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I6" s="17">
         <v>81.135999999999996</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J6" s="17">
         <v>3621.7220000000002</v>
       </c>
-      <c r="K5" s="17">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="L5" s="17">
-        <v>0.24899999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="18">
+      <c r="K6" s="17">
+        <v>0.62207699999999999</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="18">
         <v>2025</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>3852.1530000000002</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
         <v>20.92</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G7" s="20">
         <v>0.11</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H7" s="20">
         <v>5.1459999999999999</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I7" s="20">
         <v>112.80200000000001</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J7" s="20">
         <v>3713.0650000000001</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K7" s="20">
         <v>0.11</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L7" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>4591.7759999999998</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>23.620999999999999</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>1.2429999999999999</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="17">
         <v>5.3140000000000001</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <v>111.83999999999999</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J8" s="17">
         <v>3804.1489999999999</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K8" s="17">
         <v>644.88599999999997</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L8" s="17">
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>4709.9220000000005</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
         <v>17.656000000000002</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G9" s="14">
         <v>1.2979999999999998</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H9" s="14">
         <v>1.006</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>77.118000000000009</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J9" s="14">
         <v>4008.3130000000001</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K9" s="14">
         <v>604.00600000000009</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L9" s="14">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="15">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>4936.7699999999995</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>14.587</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
         <v>0.60400000000000009</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I10" s="17">
         <v>72.27</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J10" s="17">
         <v>4171.9309999999996</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K10" s="17">
         <v>677.37800000000004</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L10" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
+    <row r="11" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>4581.6660000000002</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14">
         <v>11.43</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <v>3.2770000000000001</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>64.197000000000003</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="14">
         <v>3863.6669999999999</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K11" s="14">
         <v>638.88499999999999</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L11" s="14">
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="15">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>4287.3510000000006</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>11.563000000000001</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
         <v>10.097999999999999</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <v>80.891000000000005</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J12" s="17">
         <v>3938.971</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K12" s="17">
         <v>245.828</v>
       </c>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="12">
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="13">
         <f t="shared" si="0"/>
         <v>3973.7239999999997</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14">
         <v>16.422000000000001</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
         <v>6.7050000000000001</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="14">
         <v>65.998000000000005</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J13" s="14">
         <v>3672.7449999999999</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K13" s="14">
         <v>211.75399999999999</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L13" s="14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="15">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>3875.0760000000005</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>13.523</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17">
         <v>3.4060000000000001</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="17">
         <v>40.255000000000003</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J14" s="17">
         <v>3600.1310000000003</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K14" s="17">
         <v>217.661</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L14" s="17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>4269.5860000000011</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
         <v>11.798</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
         <v>4.2240000000000002</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>39.758000000000003</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J15" s="14">
         <v>3973.8030000000003</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K15" s="14">
         <v>239.90299999999999</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L15" s="14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>4207.42</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>11.631</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
         <v>6.4219999999999997</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="17">
         <v>42.39</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J16" s="17">
         <v>3908.5230000000001</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K16" s="17">
         <v>238.25399999999999</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L16" s="17">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>3975.1469999999999</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
         <v>13.811999999999999</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
         <v>8.5429999999999993</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>45.152000000000001</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J17" s="14">
         <v>3667.9949999999999</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="14">
         <v>239.64500000000001</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L17" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="15">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>4100.5679999999993</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="17">
         <v>12.536</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17">
         <v>8.4960000000000004</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I18" s="17">
         <v>26.702000000000002</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J18" s="17">
         <v>3819.98</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K18" s="17">
         <v>232.53799999999998</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L18" s="17">
         <v>0.316</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="18">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="18">
         <v>2024</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D19" s="19">
         <f t="shared" si="0"/>
         <v>4017.011</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20">
         <v>22.772000000000002</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20">
         <v>10.057</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I19" s="20">
         <v>28.785</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J19" s="20">
         <v>3714.4920000000002</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K19" s="20">
         <v>240.589</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L19" s="20">
         <v>0.316</v>
       </c>
     </row>
-    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21">
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21">
         <v>2023</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D20" s="22">
         <f t="shared" si="0"/>
         <v>3804.0760000000005</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23">
         <v>21.974</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23">
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23">
         <v>3781.6570000000002</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23">
+      <c r="K20" s="23"/>
+      <c r="L20" s="23">
         <v>0.44499999999999995</v>
       </c>
     </row>
-    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12">
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <f t="shared" si="0"/>
         <v>3939.4789999999998</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14">
         <v>17.632999999999999</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14">
         <v>3921.846</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D22" s="16">
         <f t="shared" si="0"/>
         <v>4179.4459999999999</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
         <v>14.574</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17">
         <v>4164.8720000000003</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-    </row>
-    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12">
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <f t="shared" si="0"/>
         <v>4007.0070000000001</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14">
         <v>10.370000000000001</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14">
         <v>3996.6370000000002</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15">
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <f t="shared" si="0"/>
         <v>3938.4779999999996</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>11.238</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17">
         <v>3927.24</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12">
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <f t="shared" si="0"/>
         <v>3546.3380000000002</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
         <v>14.721</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14">
         <v>3531.6170000000002</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15">
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D26" s="16">
         <f t="shared" si="0"/>
         <v>3768.971</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F26" s="17">
         <v>11.790999999999999</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17">
         <v>3757.18</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="12">
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <f t="shared" si="0"/>
         <v>3929.92</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14">
         <v>11.15</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14">
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14">
         <v>3918.77</v>
       </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15">
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="16">
         <f t="shared" si="0"/>
         <v>3431.9790000000003</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>13.222</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17">
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17">
         <v>3418.7570000000001</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <f t="shared" si="0"/>
         <v>4058.8789999999999</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14">
         <v>12.682</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14">
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14">
         <v>4046.1970000000001</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15">
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <f t="shared" si="0"/>
         <v>3563.3870000000002</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>12.673999999999999</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17">
         <v>3550.7130000000002</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18">
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="18">
         <v>2023</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D31" s="19">
         <f t="shared" si="0"/>
         <v>3671.2179999999998</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20">
+      <c r="E31" s="20"/>
+      <c r="F31" s="20">
         <v>19.355</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20">
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20">
         <v>3651.7629999999999</v>
       </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20">
+      <c r="K31" s="20"/>
+      <c r="L31" s="20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21">
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="21">
         <v>2022</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C32" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D32" s="22">
         <f t="shared" si="0"/>
         <v>3716.8040000000001</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23">
+      <c r="E32" s="23"/>
+      <c r="F32" s="23">
         <v>21.569000000000003</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23">
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23">
         <v>3695.2350000000001</v>
       </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-    </row>
-    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="12">
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <f t="shared" si="0"/>
         <v>3792.4360000000001</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14">
         <v>17.106999999999999</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14">
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14">
         <v>3775.3290000000002</v>
       </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15">
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D34" s="16">
         <f t="shared" si="0"/>
         <v>3817.527</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <v>9.8580000000000005</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17">
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17">
         <v>3807.6689999999999</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="12">
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <f t="shared" si="0"/>
         <v>3627.1819999999998</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14">
         <v>0</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14">
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14">
         <v>3627.1819999999998</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="15">
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <f t="shared" si="0"/>
         <v>3827.951</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>12.071999999999999</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17">
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17">
         <v>3815.8789999999999</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="12">
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <f t="shared" si="0"/>
         <v>3143.0910000000003</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14">
+      <c r="E37" s="14"/>
+      <c r="F37" s="14">
         <v>19.09</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14">
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14">
         <v>3124.0010000000002</v>
       </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15">
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="16">
         <f t="shared" si="0"/>
         <v>3445.1189999999997</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <v>15.439</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17">
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17">
         <v>3429.68</v>
       </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="12">
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D39" s="13">
         <f t="shared" si="0"/>
         <v>3635.63</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14">
+      <c r="E39" s="14"/>
+      <c r="F39" s="14">
         <v>11.485000000000001</v>
       </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14">
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14">
         <v>3624.145</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="15">
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="16">
-        <f t="shared" ref="D39:D70" si="1">SUM(E39:L39)</f>
+      <c r="D40" s="16">
+        <f t="shared" ref="D40:D71" si="1">SUM(E40:L40)</f>
         <v>3190.4290000000001</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>14.215</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17">
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17">
         <v>3176.2139999999999</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="12">
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <f t="shared" si="1"/>
         <v>3439.9680000000003</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14">
+      <c r="E41" s="14"/>
+      <c r="F41" s="14">
         <v>13.414</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14">
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14">
         <v>3426.5540000000001</v>
       </c>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="15">
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <f t="shared" si="1"/>
         <v>2715.3740000000003</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>11.969000000000001</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17">
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17">
         <v>2703.4050000000002</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="18">
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="18">
         <v>2022</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D43" s="19">
         <f t="shared" si="1"/>
         <v>2658.4659999999999</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20">
+      <c r="E43" s="20"/>
+      <c r="F43" s="20">
         <v>16.979000000000003</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20">
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20">
         <v>2641.4870000000001</v>
       </c>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="21">
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="21">
         <v>2021</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D44" s="22">
         <f t="shared" si="1"/>
         <v>3320.442</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E44" s="23">
         <v>17.649000000000001</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F44" s="23">
         <v>23.779999999999998</v>
       </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23">
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23">
         <v>3279.0129999999999</v>
       </c>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-    </row>
-    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="12">
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+    </row>
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <f t="shared" si="1"/>
         <v>3032.0039999999999</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E45" s="14">
         <v>10.33</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>15.495999999999999</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14">
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14">
         <v>3006.1779999999999</v>
       </c>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="15">
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D46" s="16">
         <f t="shared" si="1"/>
         <v>2989.2959999999998</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>10.050999999999998</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>7.548</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17">
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17">
         <v>2971.4969999999998</v>
       </c>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17">
+      <c r="K46" s="17"/>
+      <c r="L46" s="17">
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="12">
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <f t="shared" si="1"/>
         <v>2627.3870000000002</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E47" s="14">
         <v>7.9939999999999998</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F47" s="14">
         <v>5.4749999999999996</v>
       </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14">
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14">
         <v>2613.9180000000001</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-    </row>
-    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="15">
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+    </row>
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <f t="shared" si="1"/>
         <v>2537.7240000000002</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>7.8689999999999989</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>5.2539999999999996</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17">
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17">
         <v>2524.6010000000001</v>
       </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-    </row>
-    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="12">
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <f t="shared" si="1"/>
         <v>2658.9530000000004</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>10.898</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>9.8620000000000001</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14">
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14">
         <v>2638.1930000000002</v>
       </c>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="15">
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+    </row>
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D50" s="16">
         <f t="shared" si="1"/>
         <v>2582.7369999999996</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>6.34</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>12.975999999999999</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17">
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17">
         <v>2563.4209999999998</v>
       </c>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="12">
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D51" s="13">
         <f t="shared" si="1"/>
         <v>2460.3429999999998</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E51" s="14">
         <v>8.5289999999999999</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="14">
         <v>9.0289999999999999</v>
       </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14">
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14">
         <v>2442.7849999999999</v>
       </c>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="15">
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+    </row>
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="16">
         <f t="shared" si="1"/>
         <v>2224.2510000000002</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>6.9880000000000004</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>9.2619999999999987</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17">
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17">
         <v>2208.0010000000002</v>
       </c>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-    </row>
-    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="12">
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <f t="shared" si="1"/>
         <v>2302.4969999999998</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E53" s="14">
         <v>6.681</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F53" s="14">
         <v>11.009</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14">
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14">
         <v>2284.8069999999998</v>
       </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-    </row>
-    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15">
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+    </row>
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <f t="shared" si="1"/>
         <v>1839.0440000000001</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>3.601</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>7.7320000000000002</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17">
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17">
         <v>1827.711</v>
       </c>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-    </row>
-    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="18">
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="18">
         <v>2021</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D55" s="19">
         <f t="shared" si="1"/>
         <v>1782.1889999999999</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E55" s="20">
         <v>3.4740000000000002</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F55" s="20">
         <v>12.038</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20">
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20">
         <v>1766.6769999999999</v>
       </c>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="21">
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="21">
         <v>2020</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C56" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D56" s="22">
         <f t="shared" si="1"/>
         <v>2213.105</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E56" s="23">
         <v>6.298</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F56" s="23">
         <v>12.508000000000001</v>
       </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23">
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23">
         <v>2194.299</v>
       </c>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-    </row>
-    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="12">
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+    </row>
+    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <f t="shared" si="1"/>
         <v>2232.3809999999999</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E57" s="14">
         <v>7.7029999999999994</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F57" s="14">
         <v>7.0470000000000006</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14">
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14">
         <v>2217.6309999999999</v>
       </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="15">
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+    </row>
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="16">
         <f t="shared" si="1"/>
         <v>2366.31</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="17">
         <v>6.1669999999999998</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F58" s="17">
         <v>8.5240000000000009</v>
       </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17">
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17">
         <v>2351.6190000000001</v>
       </c>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-    </row>
-    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="12">
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <f t="shared" si="1"/>
         <v>2099.6819999999998</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E59" s="14">
         <v>5.3330000000000002</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F59" s="14">
         <v>7.6260000000000003</v>
       </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14">
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14">
         <v>2086.723</v>
       </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="15">
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+    </row>
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <f t="shared" si="1"/>
         <v>2049.761</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>3.9379999999999997</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>7.2119999999999997</v>
       </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17">
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17">
         <v>2038.6109999999999</v>
       </c>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-    </row>
-    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="12">
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <f t="shared" si="1"/>
         <v>1831.296</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E61" s="14">
         <v>3.1339999999999999</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F61" s="14">
         <v>5.9769999999999994</v>
       </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14">
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14">
         <v>1822.1849999999999</v>
       </c>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-    </row>
-    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="15">
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+    </row>
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D62" s="16">
         <f t="shared" si="1"/>
         <v>1432.1220000000001</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="17">
         <v>1.728</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F62" s="17">
         <v>4.133</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17">
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17">
         <v>1426.261</v>
       </c>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-    </row>
-    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="12">
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D63" s="13">
         <f t="shared" si="1"/>
         <v>1162.5899999999999</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E63" s="14">
         <v>1.278</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>3.4350000000000001</v>
       </c>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14">
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14">
         <v>1157.877</v>
       </c>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-    </row>
-    <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="15">
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+    </row>
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <f t="shared" si="1"/>
         <v>1260.614</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>3.7160000000000002</v>
       </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17">
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17">
         <v>1255.808</v>
       </c>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="12">
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <f t="shared" si="1"/>
         <v>3638.011</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>7.2459999999999996</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="14">
         <v>9.4480000000000004</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <v>0.73</v>
       </c>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14">
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14">
         <v>3620.384</v>
       </c>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14">
+      <c r="K65" s="14"/>
+      <c r="L65" s="14">
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="15">
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <f t="shared" si="1"/>
         <v>4656.6239999999998</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>15.212</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>13.536</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G66" s="17">
         <v>1.831</v>
       </c>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17">
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17">
         <v>4625.2049999999999</v>
       </c>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17">
+      <c r="K66" s="17"/>
+      <c r="L66" s="17">
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="18">
+    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="18">
         <v>2020</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C67" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D67" s="19">
         <f t="shared" si="1"/>
         <v>4721.3269999999993</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E67" s="20">
         <v>15.423</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F67" s="20">
         <v>18.846</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G67" s="20">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20">
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20">
         <v>4685.6679999999997</v>
       </c>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20">
+      <c r="K67" s="20"/>
+      <c r="L67" s="20">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="21">
+    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="21">
         <v>2019</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D68" s="22">
         <f t="shared" si="1"/>
         <v>4526.3329999999996</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23">
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23">
         <v>4526.3329999999996</v>
       </c>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-    </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="12">
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+    </row>
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <f t="shared" si="1"/>
         <v>4912.3609999999999</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14">
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14">
         <v>4912.3609999999999</v>
       </c>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-    </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="15">
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+    </row>
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="16">
         <f t="shared" si="1"/>
         <v>5280.4949999999999</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17">
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17">
         <v>5280.4949999999999</v>
       </c>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-    </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="12">
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+    </row>
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <f t="shared" si="1"/>
         <v>4750.1970000000001</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14">
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14">
         <v>4750.1970000000001</v>
       </c>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-    </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="15">
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+    </row>
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="16">
-        <f t="shared" ref="D71:D90" si="2">SUM(E71:L71)</f>
+      <c r="D72" s="16">
+        <f t="shared" ref="D72:D91" si="2">SUM(E72:L72)</f>
         <v>5071.6459999999997</v>
       </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17">
         <v>5071.6459999999997</v>
       </c>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="12">
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <f t="shared" si="2"/>
         <v>4527.0069999999996</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14">
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14">
         <v>4527.0069999999996</v>
       </c>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-    </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="15">
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+    </row>
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="16">
         <f t="shared" si="2"/>
         <v>4490.4489999999996</v>
       </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17">
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17">
         <v>4490.4489999999996</v>
       </c>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="12">
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="13">
+      <c r="D75" s="13">
         <f t="shared" si="2"/>
         <v>4830.8779999999997</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14">
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14">
         <v>4830.8779999999997</v>
       </c>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-    </row>
-    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="15">
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+    </row>
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="16">
         <f t="shared" si="2"/>
         <v>4464.4589999999998</v>
       </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17">
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17">
         <v>4464.4589999999998</v>
       </c>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-    </row>
-    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="12">
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <f t="shared" si="2"/>
         <v>4908.1090000000004</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14">
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14">
         <v>4908.1090000000004</v>
       </c>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-    </row>
-    <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="15">
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+    </row>
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <f t="shared" si="2"/>
         <v>4575.8370000000004</v>
       </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17">
         <v>4575.8370000000004</v>
       </c>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-    </row>
-    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="18">
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="18">
         <v>2019</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D79" s="19">
         <f t="shared" si="2"/>
         <v>4798.5559999999996</v>
       </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20">
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20">
         <v>4798.5559999999996</v>
       </c>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-    </row>
-    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="21">
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+    </row>
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="21">
         <v>2018</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C80" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D80" s="22">
         <f t="shared" si="2"/>
         <v>4489</v>
       </c>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23">
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23">
         <v>4489</v>
       </c>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-    </row>
-    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="12">
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+    </row>
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <f t="shared" si="2"/>
         <v>4974</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14">
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14">
         <v>4974</v>
       </c>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-    </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="15">
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+    </row>
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="16">
         <f t="shared" si="2"/>
         <v>5364</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17">
         <v>5364</v>
       </c>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="12">
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <f t="shared" si="2"/>
         <v>4840</v>
       </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14">
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14">
         <v>4840</v>
       </c>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-    </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="15">
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+    </row>
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="16">
         <f t="shared" si="2"/>
         <v>5198</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17">
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17">
         <v>5198</v>
       </c>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-    </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="12">
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+    </row>
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <f t="shared" si="2"/>
         <v>4444</v>
       </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14">
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14">
         <v>4444</v>
       </c>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-    </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="15">
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+    </row>
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="16">
         <f t="shared" si="2"/>
         <v>4680</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17">
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17">
         <v>4680</v>
       </c>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="12">
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+    </row>
+    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <f t="shared" si="2"/>
         <v>4919</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14">
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14">
         <v>4919</v>
       </c>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-    </row>
-    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="15">
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+    </row>
+    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="16">
         <f t="shared" si="2"/>
         <v>4795</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17">
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17">
         <v>4795</v>
       </c>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="12">
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+    </row>
+    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="12">
         <v>2018</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D89" s="13">
         <f t="shared" si="2"/>
         <v>4643</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14">
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14">
         <v>4643</v>
       </c>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-    </row>
-    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="15">
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+    </row>
+    <row r="90" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="15">
         <v>2018</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D90" s="16">
         <f t="shared" si="2"/>
         <v>4538</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17">
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17">
         <v>4538</v>
       </c>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-    </row>
-    <row r="90" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="18">
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+    </row>
+    <row r="91" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="18">
         <v>2018</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C91" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D91" s="19">
         <f t="shared" si="2"/>
         <v>4571</v>
       </c>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20">
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20">
         <v>4571</v>
       </c>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="24" t="s">
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B92" s="24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L92" s="25"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L93" s="25"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B94" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Pasajeros_por_ruta_F.xlsx
+++ b/Pasajeros_por_ruta_F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Ferroviario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF11DF-8DD7-4C41-94EF-0221BCE5EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F0CC75-C742-499D-B704-B907ECA8C969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
   <si>
     <t>Fuente: ARTF. Agencia Reguladora del Transporte Ferroviario.</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:K93" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B4:K93" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}" name="Tabla1" displayName="Tabla1" ref="B4:K94" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B4:K94" xr:uid="{67EDBFF2-014E-4E2A-BDE9-008DB5DDA3C6}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -888,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L96"/>
+  <dimension ref="B2:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -962,2171 +962,2204 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <v>2025</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" ref="D5:D38" si="0">SUM(E5:K5)</f>
+        <v>4421.7419999999993</v>
+      </c>
+      <c r="E5" s="16">
+        <v>10.441000000000001</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="H5" s="16">
+        <v>103.53100000000001</v>
+      </c>
+      <c r="I5" s="16">
+        <v>3668.3809999999999</v>
+      </c>
+      <c r="J5" s="16">
+        <v>636.57899999999995</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" ref="D5:D37" si="0">SUM(E5:K5)</f>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
         <v>4556.6610000000001</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E6" s="13">
         <v>9.8040000000000003</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F6" s="13">
         <v>0.89</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G6" s="13">
         <v>3.8860000000000001</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H6" s="13">
         <v>100.93899999999999</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I6" s="13">
         <v>3754.011</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J6" s="13">
         <v>687.13099999999997</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K6" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
         <v>2025</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>4406.2919999999995</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E7" s="16">
         <v>12.494999999999999</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F7" s="16">
         <v>0.65</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G7" s="16">
         <v>6.415</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H7" s="16">
         <v>114.947</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I7" s="16">
         <v>3551.7429999999999</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J7" s="16">
         <v>719.90499999999997</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K7" s="16">
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
         <v>2025</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>4711.0020000000004</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>10.374000000000002</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>0.189</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>2.927</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="13">
         <v>88.15600000000002</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="13">
         <v>3907.2249999999999</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J8" s="13">
         <v>702.03099999999995</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K8" s="13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
         <v>2025</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>4340.7520000000004</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="16">
         <v>11.890000000000002</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="16">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G9" s="16">
         <v>3.484</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H9" s="16">
         <v>81.135999999999996</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I9" s="16">
         <v>3621.7220000000002</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J9" s="16">
         <v>622.077</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K9" s="16">
         <v>0.24899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
         <v>2025</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D10" s="18">
         <f t="shared" si="0"/>
         <v>4499.8280000000004</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E10" s="19">
         <v>20.92</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F10" s="19">
         <v>0.11</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G10" s="19">
         <v>5.145999999999999</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H10" s="19">
         <v>112.80200000000002</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I10" s="19">
         <v>3713.0650000000001</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J10" s="19">
         <v>647.78499999999997</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K10" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="14">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>4591.7759999999998</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="16">
         <v>23.620999999999999</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="16">
         <v>1.2429999999999999</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G11" s="16">
         <v>5.3140000000000001</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H11" s="16">
         <v>111.83999999999999</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I11" s="16">
         <v>3804.1489999999999</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J11" s="16">
         <v>644.88599999999997</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K11" s="16">
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>4709.9220000000005</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>17.656000000000002</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>1.2979999999999998</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>1.006</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>77.118000000000009</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>4008.3130000000001</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J12" s="13">
         <v>604.00600000000009</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K12" s="13">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="14">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>4936.7699999999995</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E13" s="16">
         <v>14.587</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
         <v>0.60400000000000009</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H13" s="16">
         <v>72.27</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I13" s="16">
         <v>4171.9309999999996</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J13" s="16">
         <v>677.37800000000004</v>
       </c>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>4581.6660000000002</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>11.43</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
         <v>3.2770000000000001</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>64.197000000000003</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>3863.6669999999999</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J14" s="13">
         <v>638.88499999999999</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K14" s="13">
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="14">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="14">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>4287.3510000000006</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="16">
         <v>11.563000000000001</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16">
         <v>10.097999999999999</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H15" s="16">
         <v>80.891000000000005</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I15" s="16">
         <v>3938.971</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J15" s="16">
         <v>245.828</v>
       </c>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>3973.7239999999997</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>16.422000000000001</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
         <v>6.7050000000000001</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>65.998000000000005</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>3672.7449999999999</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J16" s="13">
         <v>211.75399999999999</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="14">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="14">
         <v>2024</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D17" s="15">
         <f t="shared" si="0"/>
         <v>3875.0760000000005</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>13.523</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
         <v>3.4060000000000001</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H17" s="16">
         <v>40.255000000000003</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I17" s="16">
         <v>3600.1310000000003</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J17" s="16">
         <v>217.661</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K17" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
         <v>2024</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>4269.5860000000011</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>11.798</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
         <v>4.2240000000000002</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>39.758000000000003</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="13">
         <v>3973.8030000000003</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="13">
         <v>239.90299999999999</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="13">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="14">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="14">
         <v>2024</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <f t="shared" si="0"/>
         <v>4207.42</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>11.631</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
         <v>6.4219999999999997</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="16">
         <v>42.39</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="16">
         <v>3908.5230000000001</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J19" s="16">
         <v>238.25399999999999</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K19" s="16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
         <v>2024</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>3975.1469999999999</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>13.811999999999999</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
         <v>8.5429999999999993</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H20" s="13">
         <v>45.152000000000001</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I20" s="13">
         <v>3667.9949999999999</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J20" s="13">
         <v>239.64500000000001</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K20" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="14">
         <v>2024</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <f t="shared" si="0"/>
         <v>4100.5679999999993</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="16">
         <v>12.536</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16">
         <v>8.4960000000000004</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="16">
         <v>26.702000000000002</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="16">
         <v>3819.98</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="16">
         <v>232.53799999999998</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K21" s="16">
         <v>0.316</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="17">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="17">
         <v>2024</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="18">
         <f t="shared" si="0"/>
         <v>4017.011</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E22" s="19">
         <v>22.772000000000002</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19">
         <v>10.057</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H22" s="19">
         <v>28.785</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I22" s="19">
         <v>3714.4920000000002</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J22" s="19">
         <v>240.589</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K22" s="19">
         <v>0.316</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20">
         <v>2023</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D23" s="21">
         <f t="shared" si="0"/>
         <v>3804.0760000000005</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E23" s="22">
         <v>21.974</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22">
         <v>3781.6570000000002</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22">
+      <c r="J23" s="22"/>
+      <c r="K23" s="22">
         <v>0.44499999999999995</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>3939.4789999999998</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>17.632999999999999</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13">
         <v>3921.846</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <f t="shared" si="0"/>
         <v>4179.4459999999999</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E25" s="16">
         <v>14.574</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16">
         <v>4164.8720000000003</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11">
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>4007.0070000000001</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>10.370000000000001</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13">
         <v>3996.6370000000002</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14">
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D27" s="15">
         <f t="shared" si="0"/>
         <v>3938.4779999999996</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="16">
         <v>11.238</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16">
         <v>3927.24</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11">
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <f t="shared" si="0"/>
         <v>3546.3380000000002</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>14.721</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13">
         <v>3531.6170000000002</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14">
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14">
         <v>2023</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="15">
         <f t="shared" si="0"/>
         <v>3768.971</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="16">
         <v>11.790999999999999</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16">
         <v>3757.18</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11">
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="11">
         <v>2023</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <f t="shared" si="0"/>
         <v>3929.92</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>11.15</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13">
         <v>3918.77</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14">
         <v>2023</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="15">
         <f t="shared" si="0"/>
         <v>3431.9790000000003</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="16">
         <v>13.222</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
         <v>3418.7570000000001</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="11">
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="11">
         <v>2023</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <f t="shared" si="0"/>
         <v>4058.8789999999999</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>12.682</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13">
         <v>4046.1970000000001</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-    </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14">
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="14">
         <v>2023</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="15">
         <f t="shared" si="0"/>
         <v>3563.3870000000002</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="16">
         <v>12.673999999999999</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16">
         <v>3550.7130000000002</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17">
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17">
         <v>2023</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D34" s="18">
         <f t="shared" si="0"/>
         <v>3671.2179999999998</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E34" s="19">
         <v>19.355</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19">
         <v>3651.7629999999999</v>
       </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19">
+      <c r="J34" s="19"/>
+      <c r="K34" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20">
         <v>2022</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D35" s="21">
         <f t="shared" si="0"/>
         <v>3716.8040000000001</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E35" s="22">
         <v>21.569000000000003</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22">
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22">
         <v>3695.2350000000001</v>
       </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11">
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <f t="shared" si="0"/>
         <v>3792.4360000000001</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>17.106999999999999</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13">
         <v>3775.3290000000002</v>
       </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-    </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="14">
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <f t="shared" si="0"/>
         <v>3817.527</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E37" s="16">
         <v>9.8580000000000005</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16">
         <v>3807.6689999999999</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="11">
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <f t="shared" si="0"/>
         <v>3627.1819999999998</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>0</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13">
         <v>3627.1819999999998</v>
       </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-    </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="14">
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="15">
-        <f t="shared" ref="D38:D69" si="1">SUM(E38:K38)</f>
+      <c r="D39" s="15">
+        <f t="shared" ref="D39:D70" si="1">SUM(E39:K39)</f>
         <v>3827.951</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="16">
         <v>12.071999999999999</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16">
         <v>3815.8789999999999</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11">
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <f t="shared" si="1"/>
         <v>3143.0910000000003</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>19.09</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13">
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13">
         <v>3124.0010000000002</v>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="14">
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14">
         <v>2022</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="15">
         <f t="shared" si="1"/>
         <v>3445.1189999999997</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>15.439</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16">
         <v>3429.68</v>
       </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-    </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="11">
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="11">
         <v>2022</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <f t="shared" si="1"/>
         <v>3635.63</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>11.485000000000001</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13">
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13">
         <v>3624.145</v>
       </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-    </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="14">
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="14">
         <v>2022</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="15">
         <f t="shared" si="1"/>
         <v>3190.4290000000001</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="16">
         <v>14.215</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16">
         <v>3176.2139999999999</v>
       </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-    </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="11">
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="11">
         <v>2022</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <f t="shared" si="1"/>
         <v>3439.9680000000003</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>13.414</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13">
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13">
         <v>3426.5540000000001</v>
       </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-    </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14">
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="14">
         <v>2022</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D45" s="15">
         <f t="shared" si="1"/>
         <v>2715.3740000000003</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="16">
         <v>11.969000000000001</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16">
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16">
         <v>2703.4050000000002</v>
       </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-    </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="17">
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="17">
         <v>2022</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D46" s="18">
         <f t="shared" si="1"/>
         <v>2658.4659999999999</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E46" s="19">
         <v>16.979000000000003</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19">
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19">
         <v>2641.4870000000001</v>
       </c>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-    </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="20">
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="20">
         <v>2021</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C47" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D47" s="21">
         <f t="shared" si="1"/>
         <v>3302.7930000000001</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E47" s="22">
         <v>23.779999999999998</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22">
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22">
         <v>3279.0129999999999</v>
       </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="11">
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <f t="shared" si="1"/>
         <v>3021.674</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>15.495999999999999</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13">
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13">
         <v>3006.1779999999999</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-    </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="14">
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="15">
         <f t="shared" si="1"/>
         <v>2979.2449999999994</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E49" s="16">
         <v>7.548</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16">
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16">
         <v>2971.4969999999998</v>
       </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16">
+      <c r="J49" s="16"/>
+      <c r="K49" s="16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="11">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <f t="shared" si="1"/>
         <v>2619.393</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>5.4749999999999996</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13">
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13">
         <v>2613.9180000000001</v>
       </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="14">
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="15">
         <f t="shared" si="1"/>
         <v>2529.855</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="16">
         <v>5.2539999999999996</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16">
         <v>2524.6010000000001</v>
       </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="11">
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <f t="shared" si="1"/>
         <v>2648.0550000000003</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>9.8620000000000001</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13">
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13">
         <v>2638.1930000000002</v>
       </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="14">
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="14">
         <v>2021</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D53" s="15">
         <f t="shared" si="1"/>
         <v>2576.3969999999999</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E53" s="16">
         <v>12.975999999999999</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16">
         <v>2563.4209999999998</v>
       </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-    </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="11">
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="11">
         <v>2021</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D54" s="12">
         <f t="shared" si="1"/>
         <v>2451.8139999999999</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>9.0289999999999999</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13">
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13">
         <v>2442.7849999999999</v>
       </c>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="14">
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="14">
         <v>2021</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="15">
         <f t="shared" si="1"/>
         <v>2217.2630000000004</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="16">
         <v>9.2619999999999987</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16">
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16">
         <v>2208.0010000000002</v>
       </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-    </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="11">
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="11">
         <v>2021</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <f t="shared" si="1"/>
         <v>2295.8159999999998</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>11.009</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13">
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13">
         <v>2284.8069999999998</v>
       </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-    </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="14">
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="14">
         <v>2021</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="15">
         <f t="shared" si="1"/>
         <v>1835.443</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="16">
         <v>7.7320000000000002</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16">
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16">
         <v>1827.711</v>
       </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-    </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="17">
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="17">
         <v>2021</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D58" s="18">
         <f t="shared" si="1"/>
         <v>1778.7149999999999</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E58" s="19">
         <v>12.038</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19">
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19">
         <v>1766.6769999999999</v>
       </c>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="20">
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="20">
         <v>2020</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D59" s="21">
         <f t="shared" si="1"/>
         <v>2206.8069999999998</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E59" s="22">
         <v>12.508000000000001</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22">
         <v>2194.299</v>
       </c>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-    </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="11">
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <f t="shared" si="1"/>
         <v>2224.6779999999999</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>7.0470000000000006</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13">
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13">
         <v>2217.6309999999999</v>
       </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-    </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="14">
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <f t="shared" si="1"/>
         <v>2360.143</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="16">
         <v>8.5240000000000009</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16">
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16">
         <v>2351.6190000000001</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-    </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="11">
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <f t="shared" si="1"/>
         <v>2094.3490000000002</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>7.6260000000000003</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13">
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13">
         <v>2086.723</v>
       </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="14">
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="15">
         <f t="shared" si="1"/>
         <v>2045.8229999999999</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="16">
         <v>7.2119999999999997</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16">
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16">
         <v>2038.6109999999999</v>
       </c>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-    </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="11">
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <f t="shared" si="1"/>
         <v>1828.162</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>5.9769999999999994</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13">
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13">
         <v>1822.1849999999999</v>
       </c>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="14">
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="14">
         <v>2020</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D65" s="15">
         <f t="shared" si="1"/>
         <v>1430.394</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E65" s="16">
         <v>4.133</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16">
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16">
         <v>1426.261</v>
       </c>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="11">
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="11">
         <v>2020</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="12">
         <f t="shared" si="1"/>
         <v>1161.3119999999999</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>3.4350000000000001</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13">
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13">
         <v>1157.877</v>
       </c>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="14">
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="14">
         <v>2020</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="15">
         <f t="shared" si="1"/>
         <v>1259.5239999999999</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="16">
         <v>3.7160000000000002</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16">
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16">
         <v>1255.808</v>
       </c>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-    </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="11">
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="11">
         <v>2020</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <f t="shared" si="1"/>
         <v>3630.7649999999999</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>9.4480000000000004</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>0.73</v>
       </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13">
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13">
         <v>3620.384</v>
       </c>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13">
+      <c r="J68" s="13"/>
+      <c r="K68" s="13">
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="14">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="14">
         <v>2020</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="15">
         <f t="shared" si="1"/>
         <v>4641.4120000000003</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="16">
         <v>13.536</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="16">
         <v>1.831</v>
       </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16">
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16">
         <v>4625.2049999999999</v>
       </c>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16">
+      <c r="J69" s="16"/>
+      <c r="K69" s="16">
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="17">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="17">
         <v>2020</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C70" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D70" s="18">
         <f t="shared" si="1"/>
         <v>4705.9039999999995</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E70" s="19">
         <v>18.846</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F70" s="19">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19">
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19">
         <v>4685.6679999999997</v>
       </c>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19">
+      <c r="J70" s="19"/>
+      <c r="K70" s="19">
         <v>0.27999999999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="20">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="20">
         <v>2019</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C71" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="21">
-        <f t="shared" ref="D70:D101" si="2">SUM(E70:K70)</f>
+      <c r="D71" s="21">
+        <f t="shared" ref="D71:D94" si="2">SUM(E71:K71)</f>
         <v>4526.3329999999996</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22">
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22">
         <v>4526.3329999999996</v>
       </c>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-    </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="11">
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <f t="shared" si="2"/>
         <v>4912.3609999999999</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13">
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13">
         <v>4912.3609999999999</v>
       </c>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="14">
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="15">
         <f t="shared" si="2"/>
         <v>5280.4949999999999</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16">
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16">
         <v>5280.4949999999999</v>
       </c>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="11">
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <f t="shared" si="2"/>
         <v>4750.1970000000001</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13">
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13">
         <v>4750.1970000000001</v>
       </c>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="14">
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D75" s="15">
         <f t="shared" si="2"/>
         <v>5071.6459999999997</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16">
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16">
         <v>5071.6459999999997</v>
       </c>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="11">
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <f t="shared" si="2"/>
         <v>4527.0069999999996</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13">
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13">
         <v>4527.0069999999996</v>
       </c>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="14">
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="14">
         <v>2019</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D77" s="15">
         <f t="shared" si="2"/>
         <v>4490.4489999999996</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16">
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16">
         <v>4490.4489999999996</v>
       </c>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="11">
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="11">
         <v>2019</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D78" s="12">
         <f t="shared" si="2"/>
         <v>4830.8779999999997</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13">
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13">
         <v>4830.8779999999997</v>
       </c>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="14">
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="14">
         <v>2019</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D79" s="15">
         <f t="shared" si="2"/>
         <v>4464.4589999999998</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16">
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16">
         <v>4464.4589999999998</v>
       </c>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-    </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="11">
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="11">
         <v>2019</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <f t="shared" si="2"/>
         <v>4908.1090000000004</v>
       </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13">
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13">
         <v>4908.1090000000004</v>
       </c>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="14">
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+    </row>
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="14">
         <v>2019</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D81" s="15">
         <f t="shared" si="2"/>
         <v>4575.8370000000004</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16">
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16">
         <v>4575.8370000000004</v>
       </c>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-    </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="17">
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+    </row>
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="17">
         <v>2019</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C82" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D82" s="18">
         <f t="shared" si="2"/>
         <v>4798.5559999999996</v>
       </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19">
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19">
         <v>4798.5559999999996</v>
       </c>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-    </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="20">
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+    </row>
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="20">
         <v>2018</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C83" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D83" s="21">
         <f t="shared" si="2"/>
         <v>4489</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22">
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22">
         <v>4489</v>
       </c>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-    </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="11">
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+    </row>
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <f t="shared" si="2"/>
         <v>4974</v>
       </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13">
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13">
         <v>4974</v>
       </c>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-    </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="14">
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+    </row>
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D85" s="15">
         <f t="shared" si="2"/>
         <v>5364</v>
       </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16">
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16">
         <v>5364</v>
       </c>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-    </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="11">
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+    </row>
+    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <f t="shared" si="2"/>
         <v>4840</v>
       </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13">
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13">
         <v>4840</v>
       </c>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-    </row>
-    <row r="86" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="14">
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+    </row>
+    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="14">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D87" s="15">
         <f t="shared" si="2"/>
         <v>5198</v>
       </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16">
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16">
         <v>5198</v>
       </c>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-    </row>
-    <row r="87" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="11">
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+    </row>
+    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <f t="shared" si="2"/>
         <v>4444</v>
       </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13">
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13">
         <v>4444</v>
       </c>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-    </row>
-    <row r="88" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="14">
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+    </row>
+    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="14">
         <v>2018</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D89" s="15">
         <f t="shared" si="2"/>
         <v>4680</v>
       </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16">
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16">
         <v>4680</v>
       </c>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-    </row>
-    <row r="89" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="11">
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+    </row>
+    <row r="90" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <f t="shared" si="2"/>
         <v>4919</v>
       </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13">
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13">
         <v>4919</v>
       </c>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-    </row>
-    <row r="90" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="14">
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+    </row>
+    <row r="91" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="14">
         <v>2018</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C91" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D91" s="15">
         <f t="shared" si="2"/>
         <v>4795</v>
       </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16">
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16">
         <v>4795</v>
       </c>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-    </row>
-    <row r="91" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="11">
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+    </row>
+    <row r="92" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="11">
         <v>2018</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D92" s="12">
         <f t="shared" si="2"/>
         <v>4643</v>
       </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13">
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13">
         <v>4643</v>
       </c>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-    </row>
-    <row r="92" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="14">
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+    </row>
+    <row r="93" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="14">
         <v>2018</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C93" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D93" s="15">
         <f t="shared" si="2"/>
         <v>4538</v>
       </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16">
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16">
         <v>4538</v>
       </c>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-    </row>
-    <row r="93" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="17">
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+    </row>
+    <row r="94" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="17">
         <v>2018</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C94" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D94" s="18">
         <f t="shared" si="2"/>
         <v>4571</v>
       </c>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19">
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19">
         <v>4571</v>
       </c>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="23" t="s">
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B95" s="23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L95" s="24"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L96" s="24"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="3" t="s">
         <v>0</v>
       </c>
     </row>
